--- a/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
+++ b/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\Documents\GitHub\gears\gears_db\data\coefficients\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\gears\gears_db\data\coefficients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE1D0D-411A-466F-81C2-07665AFA437C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB758F7-2F73-4F13-9C34-2ED1BA48B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
   </bookViews>
   <sheets>
     <sheet name="un_energy_coefficients" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
+    <sheet name="commodities_and_units" sheetId="7" r:id="rId2"/>
+    <sheet name="IPCC_original" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
   <si>
     <t>Commodity</t>
   </si>
@@ -343,6 +344,30 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>to_TJ</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Metric tons,  thousand</t>
+  </si>
+  <si>
+    <t>Terajoules</t>
+  </si>
+  <si>
+    <t>Cubic metres, thousand</t>
+  </si>
+  <si>
+    <t>Natural gas liquids</t>
+  </si>
+  <si>
+    <t>To TJ</t>
   </si>
 </sst>
 </file>
@@ -357,12 +382,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,9 +408,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,27 +747,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5710766C-B9AB-44C5-9C37-FFF71030640C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" customWidth="1"/>
-    <col min="4" max="6" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>81</v>
       </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -745,730 +781,1706 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(B2,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>43.97</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(B2,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>70000</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(B2,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(B2,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(B3,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>12.6</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>100000</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(B4,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>43.21</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(B4,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>71500</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(B4,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(B4,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(B5,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>42.5</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(B5,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>70800</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(B5,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(B5,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(B6,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(B6,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>54600</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(B6,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(B6,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(B7,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>42.5</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(B7,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>70800</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(B7,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(B7,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(B8,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(B8,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>95300</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(B8,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(B8,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(B9,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(B9,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>260000</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(B9,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(B9,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(B10,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>29.31</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(B10,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>97500</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(B10,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(B10,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(B11,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>29.31</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(B11,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>97500</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(B11,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(B11,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>28.89</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>112000</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>26.38</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(B13,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>107000</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(B13,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(B13,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(B14,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(B14,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>44400</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(B14,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(B14,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(B15,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>19.64</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(B15,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>94600</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(B15,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(B15,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(B16,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>59.5</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(B16,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>61600</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(B16,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(B16,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(B17,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>41.51</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(B17,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>77400</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(B17,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(B17,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(B18,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>12.6</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>112000</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(B19,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>26.38</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(B19,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>107000</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(B19,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(B19,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(B20,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>42.5</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(B20,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>74100</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(B20,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(B20,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(B21,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>43.97</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(B21,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>70000</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(B21,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(B21,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(B22,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(B22,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>44400</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(B22,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(B22,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(B23,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>29.31</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(B23,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>96100</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(B23,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(B23,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(B24,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>43.21</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(B24,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>71500</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(B24,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(B24,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(B25,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>11.28</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(B25,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>101000</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(B25,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(B25,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(B26,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>45.55</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(B26,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>63100</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(B26,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(B26,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(B27,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>43.97</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(B27,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>69300</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(B27,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(B27,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(B28,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>44.13</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(B28,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>73300</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(B28,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(B28,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(B29,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(B29,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>56100</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(B29,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(B29,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(B30,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>29.31</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(B30,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>94600</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(B30,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(B30,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(B31,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>29.31</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(B31,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>94600</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(B31,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(B31,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(B32,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>45.55</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(B32,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>63100</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(B32,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(B32,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(B33,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>45.19</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(B33,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>79600</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(B33,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(B33,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(B34,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(B34,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>106000</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(B34,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(B34,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(B35,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>35.17</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(B35,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>97500</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(B35,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(B35,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(B36,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <v>46.1</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(B36,IPCC_original!$C$2:$F$54,2,FALSE)</f>
+        <v>57600</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(B36,IPCC_original!$C$2:$F$54,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(B36,IPCC_original!$C$2:$F$54,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>29.31</v>
+      </c>
+      <c r="D37">
+        <v>98300</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051AFAE6-F4A9-491D-962A-834896A460A8}">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(B2,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>70000</v>
-      </c>
-      <c r="E2">
-        <f>VLOOKUP(B2,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <f>VLOOKUP(B2,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <f>43.97*10^-3*10^3</f>
+        <v>43.97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>218102.92909731501</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>12.6</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>100000</v>
-      </c>
-      <c r="E3">
-        <f>VLOOKUP(B3,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <f>VLOOKUP(B3,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>44140883.403438903</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>43.21</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(B4,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>70800</v>
-      </c>
-      <c r="E4">
-        <f>VLOOKUP(B4,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f>VLOOKUP(B4,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>305.24</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>43.97</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(B5,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>70800</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(B5,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <f>VLOOKUP(B5,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>2364280.5387227801</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(B6,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>54600</v>
-      </c>
-      <c r="E6">
-        <f>VLOOKUP(B6,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f>VLOOKUP(B6,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>41027660.706133999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>42.5</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(B7,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>70800</v>
-      </c>
-      <c r="E7">
-        <f>VLOOKUP(B7,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <f>VLOOKUP(B7,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+        <v>5794004.4031281201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>95300</v>
-      </c>
-      <c r="E8">
-        <f>VLOOKUP(B8,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f>VLOOKUP(B8,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+        <v>230850693.28999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(B9,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>260000</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(B9,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>VLOOKUP(B9,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>345775168.59479201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>29.31</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(B10,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>97500</v>
-      </c>
-      <c r="E10">
-        <f>VLOOKUP(B10,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>VLOOKUP(B10,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90340652.698946297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>29.31</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(B11,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>97500</v>
-      </c>
-      <c r="E11">
-        <f>VLOOKUP(B11,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>VLOOKUP(B11,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1542952.7096343399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>28.89</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>112000</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(B12,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <f>VLOOKUP(B12,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7003578.4863276295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>26.38</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(B13,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>107000</v>
-      </c>
-      <c r="E13">
-        <f>VLOOKUP(B13,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>VLOOKUP(B13,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+        <v>29873061.3483046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>106</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(B14,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>44400</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP(B14,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f>VLOOKUP(B14,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>229364613.85264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>19.64</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(B15,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>94600</v>
-      </c>
-      <c r="E15">
-        <f>VLOOKUP(B15,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>VLOOKUP(B15,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10238562.348467801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>59.5</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(B16,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>61600</v>
-      </c>
-      <c r="E16">
-        <f>VLOOKUP(B16,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>VLOOKUP(B16,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2826790.6620359998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>41.51</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(B17,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>77400</v>
-      </c>
-      <c r="E17">
-        <f>VLOOKUP(B17,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f>VLOOKUP(B17,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29990528.4811734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>12.6</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>112000</v>
-      </c>
-      <c r="E18">
-        <f>VLOOKUP(B18,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <f>VLOOKUP(B18,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>327500711.27725297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>26.38</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(B19,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>107000</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(B19,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>VLOOKUP(B19,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16765.036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>42.5</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(B20,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>74100</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(B20,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <f>VLOOKUP(B20,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87945420.2038427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>43.68</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(B21,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>70000</v>
-      </c>
-      <c r="E21">
-        <f>VLOOKUP(B21,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <f>VLOOKUP(B21,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+        <v>170848.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>106</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(B22,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>44400</v>
-      </c>
-      <c r="E22">
-        <f>VLOOKUP(B22,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f>VLOOKUP(B22,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85496056.192514107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>29.31</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(B23,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>96100</v>
-      </c>
-      <c r="E23">
-        <f>VLOOKUP(B23,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f>VLOOKUP(B23,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>386185374.608289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>43.21</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>71500</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(B24,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <f>VLOOKUP(B24,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>12583302.234471601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <v>11.28</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(B25,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>101000</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(B25,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f>VLOOKUP(B25,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50244990.045400001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>45.55</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(B26,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>63100</v>
-      </c>
-      <c r="E26">
-        <f>VLOOKUP(B26,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <f>VLOOKUP(B26,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22094932.3984951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>43.97</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>69300</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(B27,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <f>VLOOKUP(B27,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>121743057.11879399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28">
+        <v>44.13</v>
+      </c>
+      <c r="D28">
+        <v>9626967.1481895801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>10721854467.7281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <v>45.19</v>
+      </c>
+      <c r="D30">
+        <v>3120888.71688321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31">
+        <v>29.31</v>
+      </c>
+      <c r="D31">
+        <v>90034970.496224001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>29.31</v>
+      </c>
+      <c r="D32">
+        <v>19.369610999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33">
+        <v>42.5</v>
+      </c>
+      <c r="D33">
+        <v>1136430.024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>45.19</v>
+      </c>
+      <c r="D34">
+        <v>109643.011351562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D35">
+        <v>1185543.4430480001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D36">
+        <v>109546.928012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37">
+        <v>35.17</v>
+      </c>
+      <c r="D37">
+        <v>6808508.4265497103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>46.1</v>
+      </c>
+      <c r="D38">
+        <v>1719975.1075446601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>35.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>45.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>41.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73">
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>90</v>
       </c>
-      <c r="D28">
-        <f>VLOOKUP(B28,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>73300</v>
-      </c>
-      <c r="E28">
-        <f>VLOOKUP(B28,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <f>VLOOKUP(B28,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B74">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="D29">
-        <f>VLOOKUP(B29,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>56100</v>
-      </c>
-      <c r="E29">
-        <f>VLOOKUP(B29,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f>VLOOKUP(B29,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <f>VLOOKUP(B30,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>94600</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(B30,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <f>VLOOKUP(B30,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31">
-        <f>VLOOKUP(B31,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>94600</v>
-      </c>
-      <c r="E31">
-        <f>VLOOKUP(B31,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <f>VLOOKUP(B31,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP(B32,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>63100</v>
-      </c>
-      <c r="E32">
-        <f>VLOOKUP(B32,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f>VLOOKUP(B32,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33">
-        <f>VLOOKUP(B33,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>79600</v>
-      </c>
-      <c r="E33">
-        <f>VLOOKUP(B33,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <f>VLOOKUP(B33,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34">
-        <f>VLOOKUP(B34,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>106000</v>
-      </c>
-      <c r="E34">
-        <f>VLOOKUP(B34,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <f>VLOOKUP(B34,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35">
-        <f>VLOOKUP(B35,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>97500</v>
-      </c>
-      <c r="E35">
-        <f>VLOOKUP(B35,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <f>VLOOKUP(B35,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36">
-        <f>VLOOKUP(B36,Sheet3!$C$2:$F$54,2,FALSE)</f>
-        <v>57600</v>
-      </c>
-      <c r="E36">
-        <f>VLOOKUP(B36,Sheet3!$C$2:$F$54,3,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <f>VLOOKUP(B36,Sheet3!$C$2:$F$54,4,FALSE)</f>
-        <v>0.1</v>
+      <c r="B75">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:H53">
-    <sortCondition ref="H1:H53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:B75">
+    <sortCondition ref="B44:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271D9C0-DDAF-4A92-AE34-9959A13683F1}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1488,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1508,7 +2520,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1528,7 +2540,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1548,7 +2560,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1568,7 +2580,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1588,7 +2600,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1608,7 +2620,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1628,7 +2640,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1648,7 +2660,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1668,7 +2680,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1688,7 +2700,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1708,7 +2720,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1728,7 +2740,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -1748,7 +2760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1768,7 +2780,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1788,7 +2800,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1808,7 +2820,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1828,7 +2840,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1848,7 +2860,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1868,7 +2880,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1888,7 +2900,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1908,7 +2920,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1928,7 +2940,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +2960,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +2980,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -1988,7 +3000,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2008,7 +3020,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -2028,7 +3040,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -2048,7 +3060,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2068,7 +3080,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2088,7 +3100,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2108,7 +3120,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2128,7 +3140,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2148,7 +3160,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2168,7 +3180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2188,7 +3200,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2208,7 +3220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2228,7 +3240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2248,7 +3260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2268,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2288,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2308,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +3340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -2348,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -2368,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -2388,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -2408,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2428,7 +3440,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -2448,7 +3460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -2468,7 +3480,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -2488,7 +3500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -2508,7 +3520,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -2528,7 +3540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>

--- a/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
+++ b/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\gears\gears_db\data\coefficients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB758F7-2F73-4F13-9C34-2ED1BA48B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC634AC-50A7-41C5-AC2A-93AD2C3A2728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
   </bookViews>
   <sheets>
     <sheet name="un_energy_coefficients" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="238">
   <si>
     <t>Commodity</t>
   </si>
@@ -368,6 +368,390 @@
   </si>
   <si>
     <t>To TJ</t>
+  </si>
+  <si>
+    <t>Crude petroleum</t>
+  </si>
+  <si>
+    <t>Additives and oxygenates</t>
+  </si>
+  <si>
+    <t>Animal waste</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Coal tar</t>
+  </si>
+  <si>
+    <t>Conventional crude oil</t>
+  </si>
+  <si>
+    <t>Direct use of geothermal heat</t>
+  </si>
+  <si>
+    <t>Direct use of solar thermal heat</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Kilowatt-hours, million</t>
+  </si>
+  <si>
+    <t>Kilowatts,  thousand</t>
+  </si>
+  <si>
+    <t>Electricity generating capacity</t>
+  </si>
+  <si>
+    <t>Electricity production from bagasse</t>
+  </si>
+  <si>
+    <t>Electricity production from biogases</t>
+  </si>
+  <si>
+    <t>Electricity production from brown coal</t>
+  </si>
+  <si>
+    <t>Electricity production from crude oil, ngls, other hydrocarbons</t>
+  </si>
+  <si>
+    <t>Electricity production from fuel oil</t>
+  </si>
+  <si>
+    <t>Electricity production from gas oil/ diesel oil</t>
+  </si>
+  <si>
+    <t>Electricity production from hard coal</t>
+  </si>
+  <si>
+    <t>Electricity production from liquid biofuels</t>
+  </si>
+  <si>
+    <t>Electricity production from manufactured gases</t>
+  </si>
+  <si>
+    <t>Electricity production from natural gas</t>
+  </si>
+  <si>
+    <t>Electricity production from non-renewable waste</t>
+  </si>
+  <si>
+    <t>Electricity production from oil shale</t>
+  </si>
+  <si>
+    <t>Electricity production from other oil products</t>
+  </si>
+  <si>
+    <t>Electricity production from peat</t>
+  </si>
+  <si>
+    <t>Electricity production from renewable municipal waste</t>
+  </si>
+  <si>
+    <t>Electricity production from solid biofuels</t>
+  </si>
+  <si>
+    <t>Electricity production from solid coal products</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Falling water</t>
+  </si>
+  <si>
+    <t>Feedstocks</t>
+  </si>
+  <si>
+    <t>Footnote</t>
+  </si>
+  <si>
+    <t>From chemical heat – autoproducer</t>
+  </si>
+  <si>
+    <t>From chemical heat – autoproducer – chp plants</t>
+  </si>
+  <si>
+    <t>From chemical heat – autoproducer – electricity plants</t>
+  </si>
+  <si>
+    <t>From chemical heat – main activity</t>
+  </si>
+  <si>
+    <t>From chemical heat – main activity – chp plants</t>
+  </si>
+  <si>
+    <t>From chemical heat – main activity – electricity plants</t>
+  </si>
+  <si>
+    <t>From chemical sources – autoproducer</t>
+  </si>
+  <si>
+    <t>From chemical sources – autoproducer – chp plants</t>
+  </si>
+  <si>
+    <t>From chemical sources – autoproducer – heat plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – autoproducer</t>
+  </si>
+  <si>
+    <t>From combustible fuels – autoproducer – chp plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – autoproducer – electricity plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – autoproducer – heat plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – main activity</t>
+  </si>
+  <si>
+    <t>From combustible fuels – main activity – chp plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – main activity – electricity plants</t>
+  </si>
+  <si>
+    <t>From combustible fuels – main activity – heat plants</t>
+  </si>
+  <si>
+    <t>From electric boilers – main activity</t>
+  </si>
+  <si>
+    <t>From heat pumps – main activity</t>
+  </si>
+  <si>
+    <t>From other sources – autoproducer</t>
+  </si>
+  <si>
+    <t>From other sources – autoproducer – chp plants</t>
+  </si>
+  <si>
+    <t>From other sources – autoproducer – electricity plants</t>
+  </si>
+  <si>
+    <t>From other sources – autoproducer – heat plants</t>
+  </si>
+  <si>
+    <t>From other sources – main activity</t>
+  </si>
+  <si>
+    <t>From other sources – main activity – chp plants</t>
+  </si>
+  <si>
+    <t>From other sources – main activity – electricity plants</t>
+  </si>
+  <si>
+    <t>From other sources – main activity – heat plants</t>
+  </si>
+  <si>
+    <t>Geothermal – autoproducer</t>
+  </si>
+  <si>
+    <t>Geothermal – autoproducer – chp plants</t>
+  </si>
+  <si>
+    <t>Geothermal – autoproducer – electricity plants</t>
+  </si>
+  <si>
+    <t>Geothermal – autoproducer – heat plants</t>
+  </si>
+  <si>
+    <t>Geothermal – main activity</t>
+  </si>
+  <si>
+    <t>Geothermal – main activity – chp plants</t>
+  </si>
+  <si>
+    <t>Geothermal – main activity – electricity plants</t>
+  </si>
+  <si>
+    <t>Geothermal – main activity – heat plants</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Heat output from bagasse</t>
+  </si>
+  <si>
+    <t>Heat output from biogases</t>
+  </si>
+  <si>
+    <t>Heat output from brown coal</t>
+  </si>
+  <si>
+    <t>Heat output from combustible fuels</t>
+  </si>
+  <si>
+    <t>Heat output from crude oil, ngls and other hydrocarbons</t>
+  </si>
+  <si>
+    <t>Heat output from fuel oil</t>
+  </si>
+  <si>
+    <t>Heat output from gas oil/ diesel oil</t>
+  </si>
+  <si>
+    <t>Heat output from hard coal</t>
+  </si>
+  <si>
+    <t>Heat output from liquid biofuels</t>
+  </si>
+  <si>
+    <t>Heat output from manufactured gases</t>
+  </si>
+  <si>
+    <t>Heat output from natural gas</t>
+  </si>
+  <si>
+    <t>Heat output from non-renewable waste</t>
+  </si>
+  <si>
+    <t>Heat output from oil shale</t>
+  </si>
+  <si>
+    <t>Heat output from other oil products</t>
+  </si>
+  <si>
+    <t>Heat output from peat</t>
+  </si>
+  <si>
+    <t>Heat output from renewable municipal waste</t>
+  </si>
+  <si>
+    <t>Heat output from solid biofuels</t>
+  </si>
+  <si>
+    <t>Heat output from solid coal products</t>
+  </si>
+  <si>
+    <t>Heat production</t>
+  </si>
+  <si>
+    <t>Hydro – autoproducer</t>
+  </si>
+  <si>
+    <t>Hydro – main activity</t>
+  </si>
+  <si>
+    <t>Industrial waste</t>
+  </si>
+  <si>
+    <t>Lignite brown coal</t>
+  </si>
+  <si>
+    <t>Lignite brown coal- recoverable resources</t>
+  </si>
+  <si>
+    <t>Municipal waste</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Nuclear – autoproducer</t>
+  </si>
+  <si>
+    <t>Nuclear – autoproducer – electricity plants</t>
+  </si>
+  <si>
+    <t>Nuclear – main activity</t>
+  </si>
+  <si>
+    <t>Nuclear – main activity – chp plants</t>
+  </si>
+  <si>
+    <t>Nuclear – main activity – electricity plants</t>
+  </si>
+  <si>
+    <t>Nuclear – main activity – heat plants</t>
+  </si>
+  <si>
+    <t>Of which: bio jet kerosene</t>
+  </si>
+  <si>
+    <t>Of which: biodiesel</t>
+  </si>
+  <si>
+    <t>Of which: biogasoline</t>
+  </si>
+  <si>
+    <t>Of which: fishing</t>
+  </si>
+  <si>
+    <t>Of which: pumped hydro – autoproducer</t>
+  </si>
+  <si>
+    <t>Of which: pumped hydro – main activity</t>
+  </si>
+  <si>
+    <t>Oil shale</t>
+  </si>
+  <si>
+    <t>Paraffin waxes</t>
+  </si>
+  <si>
+    <t>Patent fuel</t>
+  </si>
+  <si>
+    <t>Peat products</t>
+  </si>
+  <si>
+    <t>Production of hydrogen</t>
+  </si>
+  <si>
+    <t>Solar – autoproducer</t>
+  </si>
+  <si>
+    <t>Solar – main activity</t>
+  </si>
+  <si>
+    <t>Solar photovoltaic – autoproducer</t>
+  </si>
+  <si>
+    <t>Solar photovoltaic – main activity</t>
+  </si>
+  <si>
+    <t>Solar thermal – autoproducer</t>
+  </si>
+  <si>
+    <t>Solar thermal – main activity</t>
+  </si>
+  <si>
+    <t>Sub-bituminous coal</t>
+  </si>
+  <si>
+    <t>Tide, wave and marine – main activity</t>
+  </si>
+  <si>
+    <t>Total refinery output</t>
+  </si>
+  <si>
+    <t>Total refinery throughput</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Metric Tons</t>
+  </si>
+  <si>
+    <t>Vegetal waste</t>
+  </si>
+  <si>
+    <t>White spirit and special boiling point industrial spirits</t>
+  </si>
+  <si>
+    <t>Wind – autoproducer</t>
+  </si>
+  <si>
+    <t>Wind – main activity</t>
   </si>
 </sst>
 </file>
@@ -747,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5710766C-B9AB-44C5-9C37-FFF71030640C}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1641,6 +2025,11 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1648,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051AFAE6-F4A9-491D-962A-834896A460A8}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1660,10 +2049,11 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +2068,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1692,9 +2082,17 @@
       <c r="D2" s="2">
         <v>218102.92909731501</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1707,9 +2105,17 @@
       <c r="D3">
         <v>44140883.403438903</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3">
+        <v>1442438.63661817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1722,9 +2128,17 @@
       <c r="D4">
         <v>305.24</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4">
+        <v>52863916.811136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1737,9 +2151,17 @@
       <c r="D5">
         <v>2364280.5387227801</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>5794844.5437065298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1752,8 +2174,17 @@
       <c r="D6">
         <v>41027660.706133999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>407188.22234535898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1766,8 +2197,17 @@
       <c r="D7">
         <v>5794004.4031281201</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7">
+        <v>74550403.223376393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1780,8 +2220,17 @@
       <c r="D8">
         <v>230850693.28999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8">
+        <v>2175.0279999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1794,8 +2243,17 @@
       <c r="D9">
         <v>345775168.59479201</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>3950526.4676589598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1808,8 +2266,17 @@
       <c r="D10">
         <v>90340652.698946297</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>90506884.095434994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1822,8 +2289,17 @@
       <c r="D11">
         <v>1542952.7096343399</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <v>9058883.8451544009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1836,8 +2312,17 @@
       <c r="D12">
         <v>7003578.4863276295</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12">
+        <v>17698125.2093964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1850,8 +2335,17 @@
       <c r="D13">
         <v>29873061.3483046</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <v>351063687.292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1864,8 +2358,17 @@
       <c r="D14">
         <v>229364613.85264</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14">
+        <v>649327022.41968799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1878,8 +2381,17 @@
       <c r="D15">
         <v>10238562.348467801</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <v>220839928.19141901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1892,8 +2404,17 @@
       <c r="D16">
         <v>2826790.6620359998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16">
+        <v>2592353.1017889301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1906,8 +2427,17 @@
       <c r="D17">
         <v>29990528.4811734</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17">
+        <v>10591184.456933901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1920,8 +2450,17 @@
       <c r="D18">
         <v>327500711.27725297</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>71125110480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1934,8 +2473,17 @@
       <c r="D19">
         <v>16765.036</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>431943.77237000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1948,8 +2496,17 @@
       <c r="D20">
         <v>87945420.2038427</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>77505312.792072207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1962,8 +2519,17 @@
       <c r="D21">
         <v>170848.58</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21">
+        <v>465293491.18264002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1976,8 +2542,17 @@
       <c r="D22">
         <v>85496056.192514107</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>52690433.620242402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2565,17 @@
       <c r="D23">
         <v>386185374.608289</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>620754183.42790198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2004,8 +2588,17 @@
       <c r="D24">
         <v>12583302.234471601</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>9227065137.8397503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2018,8 +2611,17 @@
       <c r="D25">
         <v>50244990.045400001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25">
+        <v>275940744.51488799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2032,8 +2634,17 @@
       <c r="D26">
         <v>22094932.3984951</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26">
+        <v>36845893.371919997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2046,8 +2657,17 @@
       <c r="D27">
         <v>121743057.11879399</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27">
+        <v>2937851334.0096502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2060,8 +2680,17 @@
       <c r="D28">
         <v>9626967.1481895801</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28">
+        <v>642020837.82922006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2074,8 +2703,17 @@
       <c r="D29">
         <v>10721854467.7281</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29">
+        <v>6687345.8320000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2088,8 +2726,17 @@
       <c r="D30">
         <v>3120888.71688321</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30">
+        <v>542265.12584730005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2102,8 +2749,17 @@
       <c r="D31">
         <v>90034970.496224001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31">
+        <v>1382030.4746552201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2116,8 +2772,17 @@
       <c r="D32">
         <v>19.369610999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32">
+        <v>50549111.554223202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2130,8 +2795,17 @@
       <c r="D33">
         <v>1136430.024</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33">
+        <v>3317497.72368789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2144,8 +2818,17 @@
       <c r="D34">
         <v>109643.011351562</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34">
+        <v>19528086.749322299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2158,8 +2841,17 @@
       <c r="D35">
         <v>1185543.4430480001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35">
+        <v>5331016.8647340704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2172,8 +2864,17 @@
       <c r="D36">
         <v>109546.928012</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36">
+        <v>193857813.87622401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2186,8 +2887,17 @@
       <c r="D37">
         <v>6808508.4265497103</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37">
+        <v>111596.905222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2200,261 +2910,1817 @@
       <c r="D38">
         <v>1719975.1075446601</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38">
+        <v>4721140.0152137103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39">
+        <v>135127974.96294501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40">
+        <v>1517682.4568638899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41">
+        <v>295069.13299999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42">
+        <v>6581699.2752742097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43">
+        <v>262352.97600000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44">
+        <v>858277.19753700006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45">
+        <v>6715310.8384194002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="B46">
         <v>9.5299999999999994</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46">
+        <v>1861482.3131776699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
       <c r="B47">
         <v>11.28</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48">
         <v>19.64</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48">
+        <v>6795759.8315899996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49">
+        <v>238486496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="B50">
         <v>26.38</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50">
+        <v>13764513.1622731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
       <c r="B51">
         <v>28.89</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
       <c r="B52">
         <v>29.31</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52">
+        <v>14241.194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
       <c r="B53">
         <v>29.31</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53">
+        <v>7214.3389999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54">
         <v>29.31</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54">
+        <v>7026.8549999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>35.17</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55">
+        <v>1893.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>46</v>
       </c>
       <c r="B56">
         <v>43.97</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56">
+        <v>1666.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
       <c r="B57">
         <v>43.97</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>86</v>
       </c>
       <c r="B58">
         <v>45.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58">
+        <v>974715.35900000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59">
+        <v>516240.696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60">
+        <v>458474.663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
       <c r="B61">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61">
+        <v>23118522.720637299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
       <c r="B62">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62">
+        <v>142902062.498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63">
+        <v>3252134.2710454399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>96</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H64">
+        <v>35096781.858999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
         <v>26.38</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65">
+        <v>19485060.449593399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
       <c r="B66">
         <v>41.51</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H66">
+        <v>107805280.639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>95</v>
       </c>
       <c r="B67">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67">
+        <v>190599387.02482301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
       <c r="B68">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H68">
+        <v>316767377.20850998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
       <c r="B69">
         <v>43.97</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69">
+        <v>9488031.6232999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70">
+        <v>182793156.43652001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
       <c r="B71">
         <v>29.31</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71">
+        <v>180432417.40118301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
       <c r="B72">
         <v>43.21</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72">
+        <v>133974220.77199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>51</v>
       </c>
       <c r="B73">
         <v>45.55</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73">
+        <v>607166.7648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>90</v>
       </c>
       <c r="B74">
         <v>44.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74">
+        <v>795690.495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75">
+        <v>718750.01899999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76">
+        <v>6740786.4289999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77">
+        <v>15119.092000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78">
+        <v>54830.110999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H79">
+        <v>703630.92700000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80">
+        <v>6685956.318</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81">
+        <v>331794.38199999998</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>166</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82">
+        <v>765494.85199999996</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
+      <c r="H83">
+        <v>9567.1980000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84">
+        <v>426930.46500000003</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85">
+        <v>322235.18400000001</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86">
+        <v>338564.38699999999</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87">
+        <v>98493978.507192194</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88">
+        <v>533101244.93309498</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89">
+        <v>25209.054</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90">
+        <v>168941999.82744399</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
+      <c r="H91">
+        <v>323998.348826267</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92">
+        <v>138730791.29085299</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93">
+        <v>41086.089165888901</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+      <c r="G94" t="s">
+        <v>106</v>
+      </c>
+      <c r="H94">
+        <v>18157.473999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>172</v>
+      </c>
+      <c r="G96" t="s">
+        <v>119</v>
+      </c>
+      <c r="H96">
+        <v>40821.089165887999</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>173</v>
+      </c>
+      <c r="G97" t="s">
+        <v>106</v>
+      </c>
+      <c r="H97">
+        <v>18087.473999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" t="s">
+        <v>119</v>
+      </c>
+      <c r="H98">
+        <v>703645.07799011096</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>174</v>
+      </c>
+      <c r="G99" t="s">
+        <v>106</v>
+      </c>
+      <c r="H99">
+        <v>946161.08400000003</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>119</v>
+      </c>
+      <c r="H100">
+        <v>65228.216999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>175</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>242546.095</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102">
+        <v>638416.86099011102</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>177</v>
+      </c>
+      <c r="G103" t="s">
+        <v>106</v>
+      </c>
+      <c r="H103">
+        <v>687314.98899999994</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>105</v>
+      </c>
+      <c r="H104">
+        <v>922351587.120193</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>178</v>
+      </c>
+      <c r="G105" t="s">
+        <v>106</v>
+      </c>
+      <c r="H105">
+        <v>2746546481.7248702</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>179</v>
+      </c>
+      <c r="G106" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106">
+        <v>6945.9</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107">
+        <v>562177.28399999999</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108" t="s">
+        <v>106</v>
+      </c>
+      <c r="H108">
+        <v>21644727.737847999</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>182</v>
+      </c>
+      <c r="G109" t="s">
+        <v>106</v>
+      </c>
+      <c r="H109">
+        <v>459669439.70651001</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" t="s">
+        <v>106</v>
+      </c>
+      <c r="H110">
+        <v>737168.47400000005</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" t="s">
+        <v>106</v>
+      </c>
+      <c r="H111">
+        <v>19321392.497288998</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H112">
+        <v>1044916.9632</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>186</v>
+      </c>
+      <c r="G113" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113">
+        <v>158691194.41100001</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>187</v>
+      </c>
+      <c r="G114" t="s">
+        <v>106</v>
+      </c>
+      <c r="H114">
+        <v>109899.25599999999</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" t="s">
+        <v>106</v>
+      </c>
+      <c r="H115">
+        <v>8682435.5810000002</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>189</v>
+      </c>
+      <c r="G116" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116">
+        <v>197343492.6081</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>190</v>
+      </c>
+      <c r="G117" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117">
+        <v>6346837.8059999999</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>191</v>
+      </c>
+      <c r="G118" t="s">
+        <v>106</v>
+      </c>
+      <c r="H118">
+        <v>205046.788</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>192</v>
+      </c>
+      <c r="G119" t="s">
+        <v>106</v>
+      </c>
+      <c r="H119">
+        <v>9002096.0559999999</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" t="s">
+        <v>106</v>
+      </c>
+      <c r="H120">
+        <v>1463994.6839999999</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>194</v>
+      </c>
+      <c r="G121" t="s">
+        <v>106</v>
+      </c>
+      <c r="H121">
+        <v>3250140.7</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>195</v>
+      </c>
+      <c r="G122" t="s">
+        <v>106</v>
+      </c>
+      <c r="H122">
+        <v>12563083.456</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>196</v>
+      </c>
+      <c r="G123" t="s">
+        <v>106</v>
+      </c>
+      <c r="H123">
+        <v>462136.18300000002</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>197</v>
+      </c>
+      <c r="G124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H124">
+        <v>471498320.29631001</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>198</v>
+      </c>
+      <c r="G125" t="s">
+        <v>119</v>
+      </c>
+      <c r="H125">
+        <v>2160534.5296393302</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>199</v>
+      </c>
+      <c r="G126" t="s">
+        <v>119</v>
+      </c>
+      <c r="H126">
+        <v>63537555.582292199</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>200</v>
+      </c>
+      <c r="G127" t="s">
+        <v>106</v>
+      </c>
+      <c r="H127">
+        <v>124718009.316</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>105</v>
+      </c>
+      <c r="H128">
+        <v>39096349.603931703</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
+        <v>105</v>
+      </c>
+      <c r="H129">
+        <v>124003083.37989999</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>201</v>
+      </c>
+      <c r="G130" t="s">
+        <v>105</v>
+      </c>
+      <c r="H130">
+        <v>35356509996</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>202</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131">
+        <v>3299522099</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>105</v>
+      </c>
+      <c r="H132">
+        <v>51904680.987326801</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s">
+        <v>105</v>
+      </c>
+      <c r="H133">
+        <v>6793147.5268496796</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>105</v>
+      </c>
+      <c r="H134">
+        <v>222512146.83425799</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>203</v>
+      </c>
+      <c r="G135" t="s">
+        <v>106</v>
+      </c>
+      <c r="H135">
+        <v>168046280.21212</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="G136" t="s">
+        <v>105</v>
+      </c>
+      <c r="H136">
+        <v>46666959.278813198</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>204</v>
+      </c>
+      <c r="G137" t="s">
+        <v>106</v>
+      </c>
+      <c r="H137">
+        <v>4667396472.5374498</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>106</v>
+      </c>
+      <c r="H138">
+        <v>91537835132.643402</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" t="s">
+        <v>105</v>
+      </c>
+      <c r="H139">
+        <v>41518745.600655399</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>205</v>
+      </c>
+      <c r="G140" t="s">
+        <v>119</v>
+      </c>
+      <c r="H140">
+        <v>16819</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>206</v>
+      </c>
+      <c r="G141" t="s">
+        <v>119</v>
+      </c>
+      <c r="H141">
+        <v>15723</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>207</v>
+      </c>
+      <c r="G142" t="s">
+        <v>119</v>
+      </c>
+      <c r="H142">
+        <v>35848566.189000003</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>207</v>
+      </c>
+      <c r="G143" t="s">
+        <v>106</v>
+      </c>
+      <c r="H143">
+        <v>795554.26199999999</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G144" t="s">
+        <v>119</v>
+      </c>
+      <c r="H144">
+        <v>387034</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" t="s">
+        <v>106</v>
+      </c>
+      <c r="H145">
+        <v>672360.71600000001</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>209</v>
+      </c>
+      <c r="G146" t="s">
+        <v>119</v>
+      </c>
+      <c r="H146">
+        <v>35148154.189000003</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>210</v>
+      </c>
+      <c r="G147" t="s">
+        <v>106</v>
+      </c>
+      <c r="H147">
+        <v>123193.546</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>211</v>
+      </c>
+      <c r="G148" t="s">
+        <v>105</v>
+      </c>
+      <c r="H148">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>212</v>
+      </c>
+      <c r="G149" t="s">
+        <v>105</v>
+      </c>
+      <c r="H149">
+        <v>2382128.1442</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>213</v>
+      </c>
+      <c r="G150" t="s">
+        <v>105</v>
+      </c>
+      <c r="H150">
+        <v>6233646.8700000001</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>214</v>
+      </c>
+      <c r="G151" t="s">
+        <v>107</v>
+      </c>
+      <c r="H151">
+        <v>57.243858237547897</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>214</v>
+      </c>
+      <c r="G152" t="s">
+        <v>119</v>
+      </c>
+      <c r="H152">
+        <v>25047.531999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>214</v>
+      </c>
+      <c r="G153" t="s">
+        <v>105</v>
+      </c>
+      <c r="H153">
+        <v>134195.67271563801</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>214</v>
+      </c>
+      <c r="G154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H154">
+        <v>83328.721999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>215</v>
+      </c>
+      <c r="G155" t="s">
+        <v>119</v>
+      </c>
+      <c r="H155">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>216</v>
+      </c>
+      <c r="G156" t="s">
+        <v>119</v>
+      </c>
+      <c r="H156">
+        <v>1269265.0524293799</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>217</v>
+      </c>
+      <c r="G157" t="s">
+        <v>105</v>
+      </c>
+      <c r="H157">
+        <v>2685165.9455800001</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>105</v>
+      </c>
+      <c r="H158">
+        <v>229050022.06378099</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
+        <v>105</v>
+      </c>
+      <c r="H159">
+        <v>43.306420500000002</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" t="s">
+        <v>105</v>
+      </c>
+      <c r="H160">
+        <v>7045309.8689999999</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>105</v>
+      </c>
+      <c r="H161">
+        <v>213261.33244197001</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>218</v>
+      </c>
+      <c r="G162" t="s">
+        <v>105</v>
+      </c>
+      <c r="H162">
+        <v>743773.48354445002</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>219</v>
+      </c>
+      <c r="G163" t="s">
+        <v>105</v>
+      </c>
+      <c r="H163">
+        <v>6810488.81702</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
+        <v>105</v>
+      </c>
+      <c r="H164">
+        <v>2195414.45669368</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>37</v>
+      </c>
+      <c r="G165" t="s">
+        <v>105</v>
+      </c>
+      <c r="H165">
+        <v>3909345405.6896501</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" t="s">
+        <v>105</v>
+      </c>
+      <c r="H166">
+        <v>381960.76130299998</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167" t="s">
+        <v>105</v>
+      </c>
+      <c r="H167">
+        <v>22073168.8381496</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>221</v>
+      </c>
+      <c r="G168" t="s">
+        <v>105</v>
+      </c>
+      <c r="H168">
+        <v>6272.3680000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>39</v>
+      </c>
+      <c r="G169" t="s">
+        <v>105</v>
+      </c>
+      <c r="H169">
+        <v>20513412.355115999</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>222</v>
+      </c>
+      <c r="G170" t="s">
+        <v>119</v>
+      </c>
+      <c r="H170">
+        <v>847269.13852561999</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>223</v>
+      </c>
+      <c r="G171" t="s">
+        <v>119</v>
+      </c>
+      <c r="H171">
+        <v>3336050.5084755602</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>224</v>
+      </c>
+      <c r="G172" t="s">
+        <v>119</v>
+      </c>
+      <c r="H172">
+        <v>847269.13852561999</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>225</v>
+      </c>
+      <c r="G173" t="s">
+        <v>119</v>
+      </c>
+      <c r="H173">
+        <v>3331657.1424755598</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>226</v>
+      </c>
+      <c r="G174" t="s">
+        <v>106</v>
+      </c>
+      <c r="H174">
+        <v>160725.29999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>227</v>
+      </c>
+      <c r="G175" t="s">
+        <v>119</v>
+      </c>
+      <c r="H175">
+        <v>4393.366</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>227</v>
+      </c>
+      <c r="G176" t="s">
+        <v>106</v>
+      </c>
+      <c r="H176">
+        <v>24428.57</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>228</v>
+      </c>
+      <c r="G177" t="s">
+        <v>105</v>
+      </c>
+      <c r="H177">
+        <v>74830481.415399998</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>229</v>
+      </c>
+      <c r="G178" t="s">
+        <v>119</v>
+      </c>
+      <c r="H178">
+        <v>16840.293000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>230</v>
+      </c>
+      <c r="G179" t="s">
+        <v>105</v>
+      </c>
+      <c r="H179">
+        <v>124350284.194574</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>231</v>
+      </c>
+      <c r="G180" t="s">
+        <v>105</v>
+      </c>
+      <c r="H180">
+        <v>125722940.811234</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>232</v>
+      </c>
+      <c r="G181" t="s">
+        <v>233</v>
+      </c>
+      <c r="H181">
+        <v>11977717</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>234</v>
+      </c>
+      <c r="G182" t="s">
+        <v>106</v>
+      </c>
+      <c r="H182">
+        <v>1051304741.56019</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>235</v>
+      </c>
+      <c r="G183" t="s">
+        <v>105</v>
+      </c>
+      <c r="H183">
+        <v>1318180.6591662499</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>236</v>
+      </c>
+      <c r="G184" t="s">
+        <v>119</v>
+      </c>
+      <c r="H184">
+        <v>148098.23627666701</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>237</v>
+      </c>
+      <c r="G185" t="s">
+        <v>119</v>
+      </c>
+      <c r="H185">
+        <v>8568709.1252865493</v>
       </c>
     </row>
   </sheetData>

--- a/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
+++ b/gears_db/data/coefficients/un_energy_ipcc_coefficients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\gears\gears_db\data\coefficients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC634AC-50A7-41C5-AC2A-93AD2C3A2728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC5EC0-8E39-4F44-B443-B84BA04AE0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{313A7562-C127-4A15-9A96-9C24B99DDE82}"/>
   </bookViews>
   <sheets>
     <sheet name="un_energy_coefficients" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="137">
   <si>
     <t>Commodity</t>
   </si>
@@ -373,392 +373,99 @@
     <t>Crude petroleum</t>
   </si>
   <si>
-    <t>Additives and oxygenates</t>
-  </si>
-  <si>
-    <t>Animal waste</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Coal tar</t>
-  </si>
-  <si>
     <t>Conventional crude oil</t>
   </si>
   <si>
-    <t>Direct use of geothermal heat</t>
-  </si>
-  <si>
-    <t>Direct use of solar thermal heat</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Kilowatt-hours, million</t>
-  </si>
-  <si>
-    <t>Kilowatts,  thousand</t>
-  </si>
-  <si>
-    <t>Electricity generating capacity</t>
-  </si>
-  <si>
-    <t>Electricity production from bagasse</t>
-  </si>
-  <si>
-    <t>Electricity production from biogases</t>
-  </si>
-  <si>
-    <t>Electricity production from brown coal</t>
-  </si>
-  <si>
-    <t>Electricity production from crude oil, ngls, other hydrocarbons</t>
-  </si>
-  <si>
-    <t>Electricity production from fuel oil</t>
-  </si>
-  <si>
-    <t>Electricity production from gas oil/ diesel oil</t>
-  </si>
-  <si>
-    <t>Electricity production from hard coal</t>
-  </si>
-  <si>
-    <t>Electricity production from liquid biofuels</t>
-  </si>
-  <si>
-    <t>Electricity production from manufactured gases</t>
-  </si>
-  <si>
-    <t>Electricity production from natural gas</t>
-  </si>
-  <si>
-    <t>Electricity production from non-renewable waste</t>
-  </si>
-  <si>
-    <t>Electricity production from oil shale</t>
-  </si>
-  <si>
-    <t>Electricity production from other oil products</t>
-  </si>
-  <si>
-    <t>Electricity production from peat</t>
-  </si>
-  <si>
-    <t>Electricity production from renewable municipal waste</t>
-  </si>
-  <si>
-    <t>Electricity production from solid biofuels</t>
-  </si>
-  <si>
-    <t>Electricity production from solid coal products</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>Falling water</t>
-  </si>
-  <si>
-    <t>Feedstocks</t>
-  </si>
-  <si>
-    <t>Footnote</t>
-  </si>
-  <si>
-    <t>From chemical heat – autoproducer</t>
-  </si>
-  <si>
-    <t>From chemical heat – autoproducer – chp plants</t>
-  </si>
-  <si>
-    <t>From chemical heat – autoproducer – electricity plants</t>
-  </si>
-  <si>
-    <t>From chemical heat – main activity</t>
-  </si>
-  <si>
-    <t>From chemical heat – main activity – chp plants</t>
-  </si>
-  <si>
-    <t>From chemical heat – main activity – electricity plants</t>
-  </si>
-  <si>
-    <t>From chemical sources – autoproducer</t>
-  </si>
-  <si>
-    <t>From chemical sources – autoproducer – chp plants</t>
-  </si>
-  <si>
-    <t>From chemical sources – autoproducer – heat plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – autoproducer</t>
-  </si>
-  <si>
-    <t>From combustible fuels – autoproducer – chp plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – autoproducer – electricity plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – autoproducer – heat plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – main activity</t>
-  </si>
-  <si>
-    <t>From combustible fuels – main activity – chp plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – main activity – electricity plants</t>
-  </si>
-  <si>
-    <t>From combustible fuels – main activity – heat plants</t>
-  </si>
-  <si>
-    <t>From electric boilers – main activity</t>
-  </si>
-  <si>
-    <t>From heat pumps – main activity</t>
-  </si>
-  <si>
-    <t>From other sources – autoproducer</t>
-  </si>
-  <si>
-    <t>From other sources – autoproducer – chp plants</t>
-  </si>
-  <si>
-    <t>From other sources – autoproducer – electricity plants</t>
-  </si>
-  <si>
-    <t>From other sources – autoproducer – heat plants</t>
-  </si>
-  <si>
-    <t>From other sources – main activity</t>
-  </si>
-  <si>
-    <t>From other sources – main activity – chp plants</t>
-  </si>
-  <si>
-    <t>From other sources – main activity – electricity plants</t>
-  </si>
-  <si>
-    <t>From other sources – main activity – heat plants</t>
-  </si>
-  <si>
-    <t>Geothermal – autoproducer</t>
-  </si>
-  <si>
-    <t>Geothermal – autoproducer – chp plants</t>
-  </si>
-  <si>
-    <t>Geothermal – autoproducer – electricity plants</t>
-  </si>
-  <si>
-    <t>Geothermal – autoproducer – heat plants</t>
-  </si>
-  <si>
-    <t>Geothermal – main activity</t>
-  </si>
-  <si>
-    <t>Geothermal – main activity – chp plants</t>
-  </si>
-  <si>
-    <t>Geothermal – main activity – electricity plants</t>
-  </si>
-  <si>
-    <t>Geothermal – main activity – heat plants</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Heat output from bagasse</t>
-  </si>
-  <si>
-    <t>Heat output from biogases</t>
-  </si>
-  <si>
-    <t>Heat output from brown coal</t>
-  </si>
-  <si>
-    <t>Heat output from combustible fuels</t>
-  </si>
-  <si>
-    <t>Heat output from crude oil, ngls and other hydrocarbons</t>
-  </si>
-  <si>
-    <t>Heat output from fuel oil</t>
-  </si>
-  <si>
-    <t>Heat output from gas oil/ diesel oil</t>
-  </si>
-  <si>
-    <t>Heat output from hard coal</t>
-  </si>
-  <si>
-    <t>Heat output from liquid biofuels</t>
-  </si>
-  <si>
-    <t>Heat output from manufactured gases</t>
-  </si>
-  <si>
-    <t>Heat output from natural gas</t>
-  </si>
-  <si>
-    <t>Heat output from non-renewable waste</t>
-  </si>
-  <si>
-    <t>Heat output from oil shale</t>
-  </si>
-  <si>
-    <t>Heat output from other oil products</t>
-  </si>
-  <si>
-    <t>Heat output from peat</t>
-  </si>
-  <si>
-    <t>Heat output from renewable municipal waste</t>
-  </si>
-  <si>
-    <t>Heat output from solid biofuels</t>
-  </si>
-  <si>
-    <t>Heat output from solid coal products</t>
-  </si>
-  <si>
-    <t>Heat production</t>
-  </si>
-  <si>
-    <t>Hydro – autoproducer</t>
-  </si>
-  <si>
-    <t>Hydro – main activity</t>
-  </si>
-  <si>
-    <t>Industrial waste</t>
-  </si>
-  <si>
-    <t>Lignite brown coal</t>
-  </si>
-  <si>
-    <t>Lignite brown coal- recoverable resources</t>
-  </si>
-  <si>
-    <t>Municipal waste</t>
-  </si>
-  <si>
-    <t>Natural gas</t>
-  </si>
-  <si>
-    <t>Nuclear – autoproducer</t>
-  </si>
-  <si>
-    <t>Nuclear – autoproducer – electricity plants</t>
-  </si>
-  <si>
-    <t>Nuclear – main activity</t>
-  </si>
-  <si>
-    <t>Nuclear – main activity – chp plants</t>
-  </si>
-  <si>
-    <t>Nuclear – main activity – electricity plants</t>
-  </si>
-  <si>
-    <t>Nuclear – main activity – heat plants</t>
-  </si>
-  <si>
-    <t>Of which: bio jet kerosene</t>
-  </si>
-  <si>
-    <t>Of which: biodiesel</t>
-  </si>
-  <si>
-    <t>Of which: biogasoline</t>
-  </si>
-  <si>
-    <t>Of which: fishing</t>
-  </si>
-  <si>
-    <t>Of which: pumped hydro – autoproducer</t>
-  </si>
-  <si>
-    <t>Of which: pumped hydro – main activity</t>
-  </si>
-  <si>
-    <t>Oil shale</t>
-  </si>
-  <si>
-    <t>Paraffin waxes</t>
-  </si>
-  <si>
-    <t>Patent fuel</t>
-  </si>
-  <si>
-    <t>Peat products</t>
-  </si>
-  <si>
-    <t>Production of hydrogen</t>
-  </si>
-  <si>
-    <t>Solar – autoproducer</t>
-  </si>
-  <si>
-    <t>Solar – main activity</t>
-  </si>
-  <si>
-    <t>Solar photovoltaic – autoproducer</t>
-  </si>
-  <si>
-    <t>Solar photovoltaic – main activity</t>
-  </si>
-  <si>
-    <t>Solar thermal – autoproducer</t>
-  </si>
-  <si>
-    <t>Solar thermal – main activity</t>
-  </si>
-  <si>
-    <t>Sub-bituminous coal</t>
-  </si>
-  <si>
-    <t>Tide, wave and marine – main activity</t>
-  </si>
-  <si>
-    <t>Total refinery output</t>
-  </si>
-  <si>
-    <t>Total refinery throughput</t>
-  </si>
-  <si>
-    <t>Uranium</t>
-  </si>
-  <si>
-    <t>Metric Tons</t>
-  </si>
-  <si>
-    <t>Vegetal waste</t>
-  </si>
-  <si>
-    <t>White spirit and special boiling point industrial spirits</t>
-  </si>
-  <si>
-    <t>Wind – autoproducer</t>
-  </si>
-  <si>
-    <t>Wind – main activity</t>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Consumption by agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Consumption by chemical and petrochemical</t>
+  </si>
+  <si>
+    <t>Consumption by households</t>
+  </si>
+  <si>
+    <t>Consumption by iron and steel</t>
+  </si>
+  <si>
+    <t>Consumption by non-metallic minerals</t>
+  </si>
+  <si>
+    <t>Consumption by paper, pulp and print</t>
+  </si>
+  <si>
+    <t>Consumption by rail</t>
+  </si>
+  <si>
+    <t>Consumption not elsewhere specified (industry)</t>
+  </si>
+  <si>
+    <t>Transformation in electricity plants</t>
+  </si>
+  <si>
+    <t>Consumption by commerce and public services</t>
+  </si>
+  <si>
+    <t>Consumption by domestic aviation</t>
+  </si>
+  <si>
+    <t>Consumption by domestic navigation</t>
+  </si>
+  <si>
+    <t>Consumption by road</t>
+  </si>
+  <si>
+    <t>Own use by oil and gas extraction</t>
+  </si>
+  <si>
+    <t>Own use by oil refineries</t>
+  </si>
+  <si>
+    <t>Transformation in charcoal plants</t>
+  </si>
+  <si>
+    <t>Consumption by industries not elsewhere specified</t>
+  </si>
+  <si>
+    <t>Flared</t>
+  </si>
+  <si>
+    <t>Own use by lng/regasification plants</t>
+  </si>
+  <si>
+    <t>Transformation in gas-to-liquid plants</t>
+  </si>
+  <si>
+    <t>IS Equal?</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>CO2 is 100000, but it's a memorandum item so 0. CH4 and N2O do count.</t>
+  </si>
+  <si>
+    <t>CO2 is 112000, but it's a memorandum item so 0. CH4 and N2O do count.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -789,19 +496,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1131,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5710766C-B9AB-44C5-9C37-FFF71030640C}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,7 +879,7 @@
     <col min="4" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +898,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +910,7 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(B2,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B2,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>43.97</v>
       </c>
       <c r="D2">
@@ -1189,7 +926,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1197,12 +934,11 @@
         <v>84</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(B3,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B3,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>12.6</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,2,FALSE)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,3,FALSE)</f>
@@ -1212,8 +948,11 @@
         <f>VLOOKUP(B3,IPCC_original!$C$2:$F$54,4,FALSE)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +960,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(B4,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B4,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>43.21</v>
       </c>
       <c r="D4">
@@ -1237,7 +976,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +984,7 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(B5,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B5,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>42.5</v>
       </c>
       <c r="D5">
@@ -1261,7 +1000,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1008,7 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(B6,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B6,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D6">
@@ -1285,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(B7,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B7,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>42.5</v>
       </c>
       <c r="D7">
@@ -1309,7 +1048,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1056,7 @@
         <v>96</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(B8,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B8,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D8">
@@ -1333,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1341,7 +1080,7 @@
         <v>72</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(B9,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B9,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D9">
@@ -1357,7 +1096,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1104,7 @@
         <v>63</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(B10,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B10,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>29.31</v>
       </c>
       <c r="D10">
@@ -1381,7 +1120,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1389,7 +1128,7 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(B11,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B11,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>29.31</v>
       </c>
       <c r="D11">
@@ -1405,7 +1144,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1413,12 +1152,11 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(B12,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B12,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>28.89</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,2,FALSE)</f>
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,3,FALSE)</f>
@@ -1428,8 +1166,11 @@
         <f>VLOOKUP(B12,IPCC_original!$C$2:$F$54,4,FALSE)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(B13,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B13,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>26.38</v>
       </c>
       <c r="D13">
@@ -1453,7 +1194,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(B14,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B14,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D14">
@@ -1477,7 +1218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1226,7 @@
         <v>59</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(B15,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B15,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>19.64</v>
       </c>
       <c r="D15">
@@ -1501,7 +1242,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(B16,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B16,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>59.5</v>
       </c>
       <c r="D16">
@@ -1525,7 +1266,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1533,7 +1274,7 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(B17,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B17,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>41.51</v>
       </c>
       <c r="D17">
@@ -1549,7 +1290,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1557,12 +1298,11 @@
         <v>95</v>
       </c>
       <c r="C18">
-        <f>VLOOKUP(B18,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B18,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>12.6</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,2,FALSE)</f>
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,3,FALSE)</f>
@@ -1572,8 +1312,11 @@
         <f>VLOOKUP(B18,IPCC_original!$C$2:$F$54,4,FALSE)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1324,7 @@
         <v>67</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(B19,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B19,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>26.38</v>
       </c>
       <c r="D19">
@@ -1597,7 +1340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1348,7 @@
         <v>79</v>
       </c>
       <c r="C20">
-        <f>VLOOKUP(B20,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B20,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>42.5</v>
       </c>
       <c r="D20">
@@ -1621,7 +1364,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1372,7 @@
         <v>47</v>
       </c>
       <c r="C21">
-        <f>VLOOKUP(B21,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B21,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>43.97</v>
       </c>
       <c r="D21">
@@ -1645,7 +1388,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1396,7 @@
         <v>70</v>
       </c>
       <c r="C22">
-        <f>VLOOKUP(B22,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B22,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D22">
@@ -1669,7 +1412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1677,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="C23">
-        <f>VLOOKUP(B23,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B23,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>29.31</v>
       </c>
       <c r="D23">
@@ -1693,7 +1436,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1444,7 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <f>VLOOKUP(B24,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B24,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>43.21</v>
       </c>
       <c r="D24">
@@ -1717,7 +1460,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1725,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <f>VLOOKUP(B25,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B25,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>11.28</v>
       </c>
       <c r="D25">
@@ -1741,7 +1484,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1749,7 +1492,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <f>VLOOKUP(B26,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B26,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>45.55</v>
       </c>
       <c r="D26">
@@ -1765,7 +1508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1773,7 +1516,7 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <f>VLOOKUP(B27,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B27,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>43.97</v>
       </c>
       <c r="D27">
@@ -1789,7 +1532,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1797,7 +1540,7 @@
         <v>90</v>
       </c>
       <c r="C28">
-        <f>VLOOKUP(B28,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B28,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>44.13</v>
       </c>
       <c r="D28">
@@ -1813,7 +1556,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1564,7 @@
         <v>75</v>
       </c>
       <c r="C29">
-        <f>VLOOKUP(B29,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B29,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D29">
@@ -1837,7 +1580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1845,7 +1588,7 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <f>VLOOKUP(B30,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B30,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>29.31</v>
       </c>
       <c r="D30">
@@ -1861,7 +1604,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1612,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP(B31,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B31,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>29.31</v>
       </c>
       <c r="D31">
@@ -1885,7 +1628,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1893,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP(B32,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B32,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>45.55</v>
       </c>
       <c r="D32">
@@ -1917,7 +1660,7 @@
         <v>86</v>
       </c>
       <c r="C33">
-        <f>VLOOKUP(B33,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B33,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>45.19</v>
       </c>
       <c r="D33">
@@ -1941,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <f>VLOOKUP(B34,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B34,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>9.5299999999999994</v>
       </c>
       <c r="D34">
@@ -1965,7 +1708,7 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <f>VLOOKUP(B35,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B35,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>35.17</v>
       </c>
       <c r="D35">
@@ -1989,7 +1732,7 @@
         <v>55</v>
       </c>
       <c r="C36">
-        <f>VLOOKUP(B36,commodities_and_units!$A$44:$B$75,2,FALSE)</f>
+        <f>VLOOKUP(B36,commodities_and_units!$A$42:$B$73,2,FALSE)</f>
         <v>46.1</v>
       </c>
       <c r="D36">
@@ -2027,7 +1770,42 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38">
+        <v>42.62</v>
+      </c>
+      <c r="D38">
+        <v>73300</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>42.62</v>
+      </c>
+      <c r="D39">
+        <v>73300</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2037,23 +1815,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051AFAE6-F4A9-491D-962A-834896A460A8}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:L728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H185"/>
+    <sheetView topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2066,9 +1846,8 @@
       <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2082,17 +1861,8 @@
       <c r="D2" s="2">
         <v>218102.92909731501</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2105,17 +1875,8 @@
       <c r="D3">
         <v>44140883.403438903</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3">
-        <v>1442438.63661817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2128,17 +1889,8 @@
       <c r="D4">
         <v>305.24</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4">
-        <v>52863916.811136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2151,21 +1903,12 @@
       <c r="D5">
         <v>2364280.5387227801</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5">
-        <v>5794844.5437065298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C6">
@@ -2174,17 +1917,8 @@
       <c r="D6">
         <v>41027660.706133999</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6">
-        <v>407188.22234535898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2197,21 +1931,12 @@
       <c r="D7">
         <v>5794004.4031281201</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7">
-        <v>74550403.223376393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C8">
@@ -2220,21 +1945,12 @@
       <c r="D8">
         <v>230850693.28999999</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8">
-        <v>2175.0279999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C9">
@@ -2243,17 +1959,8 @@
       <c r="D9">
         <v>345775168.59479201</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9">
-        <v>3950526.4676589598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2266,17 +1973,8 @@
       <c r="D10">
         <v>90340652.698946297</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10">
-        <v>90506884.095434994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2289,17 +1987,8 @@
       <c r="D11">
         <v>1542952.7096343399</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11">
-        <v>9058883.8451544009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2312,17 +2001,8 @@
       <c r="D12">
         <v>7003578.4863276295</v>
       </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12">
-        <v>17698125.2093964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2335,21 +2015,12 @@
       <c r="D13">
         <v>29873061.3483046</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13">
-        <v>351063687.292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C14">
@@ -2358,17 +2029,8 @@
       <c r="D14">
         <v>229364613.85264</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14">
-        <v>649327022.41968799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2381,17 +2043,8 @@
       <c r="D15">
         <v>10238562.348467801</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15">
-        <v>220839928.19141901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2404,17 +2057,8 @@
       <c r="D16">
         <v>2826790.6620359998</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16">
-        <v>2592353.1017889301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2427,17 +2071,8 @@
       <c r="D17">
         <v>29990528.4811734</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17">
-        <v>10591184.456933901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2450,17 +2085,8 @@
       <c r="D18">
         <v>327500711.27725297</v>
       </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18">
-        <v>71125110480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2473,17 +2099,8 @@
       <c r="D19">
         <v>16765.036</v>
       </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19">
-        <v>431943.77237000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2496,17 +2113,8 @@
       <c r="D20">
         <v>87945420.2038427</v>
       </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20">
-        <v>77505312.792072207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2519,21 +2127,12 @@
       <c r="D21">
         <v>170848.58</v>
       </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21">
-        <v>465293491.18264002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C22">
@@ -2542,17 +2141,8 @@
       <c r="D22">
         <v>85496056.192514107</v>
       </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22">
-        <v>52690433.620242402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2565,17 +2155,8 @@
       <c r="D23">
         <v>386185374.608289</v>
       </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23">
-        <v>620754183.42790198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2588,17 +2169,8 @@
       <c r="D24">
         <v>12583302.234471601</v>
       </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24">
-        <v>9227065137.8397503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2611,17 +2183,8 @@
       <c r="D25">
         <v>50244990.045400001</v>
       </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25">
-        <v>275940744.51488799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2634,17 +2197,8 @@
       <c r="D26">
         <v>22094932.3984951</v>
       </c>
-      <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26">
-        <v>36845893.371919997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2657,17 +2211,8 @@
       <c r="D27">
         <v>121743057.11879399</v>
       </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27">
-        <v>2937851334.0096502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2680,21 +2225,12 @@
       <c r="D28">
         <v>9626967.1481895801</v>
       </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28">
-        <v>642020837.82922006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C29">
@@ -2703,17 +2239,8 @@
       <c r="D29">
         <v>10721854467.7281</v>
       </c>
-      <c r="F29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29">
-        <v>6687345.8320000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2726,17 +2253,8 @@
       <c r="D30">
         <v>3120888.71688321</v>
       </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30">
-        <v>542265.12584730005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2749,17 +2267,8 @@
       <c r="D31">
         <v>90034970.496224001</v>
       </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31">
-        <v>1382030.4746552201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2772,17 +2281,8 @@
       <c r="D32">
         <v>19.369610999999999</v>
       </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32">
-        <v>50549111.554223202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2795,17 +2295,8 @@
       <c r="D33">
         <v>1136430.024</v>
       </c>
-      <c r="F33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33">
-        <v>3317497.72368789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2818,17 +2309,8 @@
       <c r="D34">
         <v>109643.011351562</v>
       </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34">
-        <v>19528086.749322299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2841,17 +2323,8 @@
       <c r="D35">
         <v>1185543.4430480001</v>
       </c>
-      <c r="F35" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35">
-        <v>5331016.8647340704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2864,17 +2337,8 @@
       <c r="D36">
         <v>109546.928012</v>
       </c>
-      <c r="F36" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36">
-        <v>193857813.87622401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2887,17 +2351,8 @@
       <c r="D37">
         <v>6808508.4265497103</v>
       </c>
-      <c r="F37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37">
-        <v>111596.905222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2910,1823 +2365,2011 @@
       <c r="D38">
         <v>1719975.1075446601</v>
       </c>
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38">
-        <v>4721140.0152137103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39">
-        <v>135127974.96294501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40">
-        <v>1517682.4568638899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>133</v>
-      </c>
-      <c r="G41" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41">
-        <v>295069.13299999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H42">
-        <v>6581699.2752742097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43">
-        <v>262352.97600000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44">
-        <v>858277.19753700006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45">
-        <v>6715310.8384194002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="F46" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46">
-        <v>1861482.3131776699</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>11.28</v>
-      </c>
-      <c r="F47" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B48">
-        <v>19.64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48">
-        <v>6795759.8315899996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>42.5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49">
-        <v>238486496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>26.38</v>
-      </c>
-      <c r="F50" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50">
-        <v>13764513.1622731</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>28.89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>29.31</v>
       </c>
-      <c r="F52" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>35.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <v>45.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>41.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>43.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K77" s="5">
+        <f>SUM(K78:K113)</f>
+        <v>231701.81550931116</v>
+      </c>
+      <c r="L77" s="6">
+        <f>K77-K81-K82--K85-K86-K93-K97-K100-K111</f>
+        <v>117172.41072805243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>133</v>
+      </c>
+      <c r="K78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>4.226</v>
+      </c>
+      <c r="E79" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79">
+        <v>13.308730499999999</v>
+      </c>
+      <c r="H79">
+        <v>1.5086820000000001E-2</v>
+      </c>
+      <c r="I79">
+        <v>2.8557195E-2</v>
+      </c>
+      <c r="J79" t="b">
+        <f t="shared" ref="J79:J142" si="0">B79=F79</f>
+        <v>1</v>
+      </c>
+      <c r="K79" s="5">
+        <f>SUM(G79:I79)</f>
+        <v>13.352374514999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>19129.931</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80">
+        <v>1073.1891290999999</v>
+      </c>
+      <c r="H80">
+        <v>0.53563806800000002</v>
+      </c>
+      <c r="I80">
+        <v>0.50694317150000001</v>
+      </c>
+      <c r="J80" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" ref="K80:K114" si="1">SUM(G80:I80)</f>
+        <v>1074.2317103395001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>680.28499999999997</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>2201.1845687999999</v>
+      </c>
+      <c r="H81">
+        <v>110.05922844</v>
+      </c>
+      <c r="I81">
+        <v>20.832639668999999</v>
+      </c>
+      <c r="J81" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="1"/>
+        <v>2332.0764369089998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>10360.211056</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>14620.3298422272</v>
+      </c>
+      <c r="H82">
+        <v>109.652473816704</v>
+      </c>
+      <c r="I82">
+        <v>138.37097886393599</v>
+      </c>
+      <c r="J82" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="1"/>
+        <v>14868.35329490784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>196.76499999999999</v>
+      </c>
+      <c r="E83" t="s">
+        <v>123</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83">
+        <v>607.90841897500002</v>
+      </c>
+      <c r="H83">
+        <v>0.71418611460000003</v>
+      </c>
+      <c r="I83">
+        <v>1.3518522883499999</v>
+      </c>
+      <c r="J83" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="5">
+        <f t="shared" si="1"/>
+        <v>609.97445737794999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>63.887</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84">
+        <v>201.19613475</v>
+      </c>
+      <c r="H84">
+        <v>0.22807659</v>
+      </c>
+      <c r="I84">
+        <v>0.43171640249999998</v>
+      </c>
+      <c r="J84" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="1"/>
+        <v>201.8559277425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>639.44000000000005</v>
+      </c>
+      <c r="E85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85">
+        <v>2069.0232191999999</v>
+      </c>
+      <c r="H85">
+        <v>103.45116096</v>
+      </c>
+      <c r="I85">
+        <v>19.581826895999999</v>
+      </c>
+      <c r="J85" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="1"/>
+        <v>2192.0562070559999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>32359.436125</v>
+      </c>
+      <c r="E86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>45665.636259600004</v>
+      </c>
+      <c r="H86">
+        <v>342.49227194700001</v>
+      </c>
+      <c r="I86">
+        <v>432.19262888550003</v>
+      </c>
+      <c r="J86" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="5">
+        <f t="shared" si="1"/>
+        <v>46440.321160432504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87">
+        <v>163.946</v>
+      </c>
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87">
+        <v>471.21441292999998</v>
+      </c>
+      <c r="H87">
+        <v>0.20909672839999999</v>
+      </c>
+      <c r="I87">
+        <v>0.19789511795</v>
+      </c>
+      <c r="J87" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="5">
+        <f t="shared" si="1"/>
+        <v>471.62140477635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88">
+        <v>4.1877166849999998</v>
+      </c>
+      <c r="H88">
+        <v>1.8582577999999999E-3</v>
+      </c>
+      <c r="I88">
+        <v>1.7587082750000001E-3</v>
+      </c>
+      <c r="J88" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K88" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1913336510750003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89">
+        <v>80232.62</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89">
+        <v>4501.0499820000005</v>
+      </c>
+      <c r="H89">
+        <v>2.2465133599999998</v>
+      </c>
+      <c r="I89">
+        <v>2.1261644300000002</v>
+      </c>
+      <c r="J89" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="1"/>
+        <v>4505.4226597900006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>11588.458000000001</v>
+      </c>
+      <c r="E90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>650.11249380000004</v>
+      </c>
+      <c r="H90">
+        <v>0.324476824</v>
+      </c>
+      <c r="I90">
+        <v>0.30709413699999999</v>
+      </c>
+      <c r="J90" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" si="1"/>
+        <v>650.74406476100012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>537.24300000000005</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <v>1513.247522913</v>
+      </c>
+      <c r="H91">
+        <v>0.44090458523999998</v>
+      </c>
+      <c r="I91">
+        <v>6.2592704511750004</v>
+      </c>
+      <c r="J91" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="1"/>
+        <v>1519.9476979494152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92">
+        <v>537.24300000000005</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92">
+        <v>1489.6276344180001</v>
+      </c>
+      <c r="H92">
+        <v>0.44090458523999998</v>
+      </c>
+      <c r="I92">
+        <v>6.2592704511750004</v>
+      </c>
+      <c r="J92" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="5">
+        <f t="shared" si="1"/>
+        <v>1496.3278094544153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>39.7128626163109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>56.042791724137899</v>
+      </c>
+      <c r="H93">
+        <v>0.42032093793103398</v>
+      </c>
+      <c r="I93">
+        <v>0.53040499310344802</v>
+      </c>
+      <c r="J93" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="5">
+        <f t="shared" si="1"/>
+        <v>56.993517655172376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>119</v>
       </c>
-      <c r="H52">
-        <v>14241.194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>29.31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>54.067</v>
+      </c>
+      <c r="E94" t="s">
         <v>119</v>
       </c>
-      <c r="H53">
-        <v>7214.3389999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <v>29.31</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54">
-        <v>7026.8549999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>35.17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H55">
-        <v>1893.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56">
-        <v>43.97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56">
-        <v>1666.4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <v>43.97</v>
-      </c>
-      <c r="F57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58">
-        <v>45.19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58">
-        <v>974715.35900000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59">
-        <v>46.1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59">
-        <v>516240.696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60">
-        <v>59.5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60">
-        <v>458474.663</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61">
-        <v>12.6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61">
-        <v>23118522.720637299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62">
-        <v>42.5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" t="s">
-        <v>106</v>
-      </c>
-      <c r="H62">
-        <v>142902062.498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63">
-        <v>3252134.2710454399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64">
-        <v>35096781.858999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>26.38</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65">
-        <v>19485060.449593399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66">
-        <v>41.51</v>
-      </c>
-      <c r="F66" t="s">
-        <v>155</v>
-      </c>
-      <c r="G66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66">
-        <v>107805280.639</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67">
-        <v>12.6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67">
-        <v>190599387.02482301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68">
-        <v>42.5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68">
-        <v>316767377.20850998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69">
-        <v>43.97</v>
-      </c>
-      <c r="F69" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H69">
-        <v>9488031.6232999992</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>157</v>
-      </c>
-      <c r="G70" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70">
-        <v>182793156.43652001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71">
-        <v>29.31</v>
-      </c>
-      <c r="F71" t="s">
-        <v>158</v>
-      </c>
-      <c r="G71" t="s">
-        <v>119</v>
-      </c>
-      <c r="H71">
-        <v>180432417.40118301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72">
-        <v>43.21</v>
-      </c>
-      <c r="F72" t="s">
-        <v>159</v>
-      </c>
-      <c r="G72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H72">
-        <v>133974220.77199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73">
-        <v>45.55</v>
-      </c>
-      <c r="F73" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" t="s">
-        <v>106</v>
-      </c>
-      <c r="H73">
-        <v>607166.7648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74">
-        <v>44.13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" t="s">
-        <v>106</v>
-      </c>
-      <c r="H74">
-        <v>795690.495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>162</v>
-      </c>
-      <c r="G75" t="s">
-        <v>119</v>
-      </c>
-      <c r="H75">
-        <v>718750.01899999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F76" t="s">
-        <v>162</v>
-      </c>
-      <c r="G76" t="s">
-        <v>106</v>
-      </c>
-      <c r="H76">
-        <v>6740786.4289999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G77" t="s">
-        <v>119</v>
-      </c>
-      <c r="H77">
-        <v>15119.092000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78">
-        <v>54830.110999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F79" t="s">
-        <v>164</v>
-      </c>
-      <c r="G79" t="s">
-        <v>119</v>
-      </c>
-      <c r="H79">
-        <v>703630.92700000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
-        <v>165</v>
-      </c>
-      <c r="G80" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80">
-        <v>6685956.318</v>
-      </c>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F81" t="s">
-        <v>166</v>
-      </c>
-      <c r="G81" t="s">
-        <v>119</v>
-      </c>
-      <c r="H81">
-        <v>331794.38199999998</v>
-      </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
-        <v>166</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82">
-        <v>765494.85199999996</v>
-      </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
-        <v>167</v>
-      </c>
-      <c r="G83" t="s">
-        <v>119</v>
-      </c>
-      <c r="H83">
-        <v>9567.1980000000003</v>
-      </c>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F84" t="s">
-        <v>167</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84">
-        <v>426930.46500000003</v>
-      </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F85" t="s">
-        <v>168</v>
-      </c>
-      <c r="G85" t="s">
-        <v>119</v>
-      </c>
-      <c r="H85">
-        <v>322235.18400000001</v>
-      </c>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H86">
-        <v>338564.38699999999</v>
-      </c>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F87" t="s">
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94">
+        <v>170.27049975</v>
+      </c>
+      <c r="H94">
+        <v>0.19301919000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.36535775250000002</v>
+      </c>
+      <c r="J94" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="5">
+        <f t="shared" si="1"/>
+        <v>170.82887669249999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>3762.39</v>
+      </c>
+      <c r="E95" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95">
+        <v>11848.7067075</v>
+      </c>
+      <c r="H95">
+        <v>13.4317323</v>
+      </c>
+      <c r="I95">
+        <v>25.424350425</v>
+      </c>
+      <c r="J95" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="5">
+        <f t="shared" si="1"/>
+        <v>11887.562790225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>13500.161</v>
+      </c>
+      <c r="E96" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96">
+        <v>41136.624086481002</v>
+      </c>
+      <c r="H96">
+        <v>49.862574650280003</v>
+      </c>
+      <c r="I96">
+        <v>94.38273058803</v>
+      </c>
+      <c r="J96" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="5">
+        <f t="shared" si="1"/>
+        <v>41280.869391719316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>98</v>
+      </c>
+      <c r="E97" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>123.48</v>
+      </c>
+      <c r="H97">
+        <v>1.0372319999999999</v>
+      </c>
+      <c r="I97">
+        <v>1.3088880000000001</v>
+      </c>
+      <c r="J97" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="5">
+        <f t="shared" si="1"/>
+        <v>125.82612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>16.542000000000002</v>
+      </c>
+      <c r="E98" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>53.52461856</v>
+      </c>
+      <c r="H98">
+        <v>2.6762309279999998</v>
+      </c>
+      <c r="I98">
+        <v>0.5065722828</v>
+      </c>
+      <c r="J98" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" si="1"/>
+        <v>56.707421770800003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
         <v>19</v>
       </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
-      <c r="H87">
-        <v>98493978.507192194</v>
-      </c>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F88" t="s">
+      <c r="C99">
+        <v>456.185</v>
+      </c>
+      <c r="E99" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99">
+        <v>1465.66492569</v>
+      </c>
+      <c r="H99">
+        <v>1.5906441054</v>
+      </c>
+      <c r="I99">
+        <v>3.0108620566500002</v>
+      </c>
+      <c r="J99" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="1"/>
+        <v>1470.2664318520501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" t="s">
         <v>20</v>
       </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
-      <c r="H88">
-        <v>533101244.93309498</v>
-      </c>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H89">
-        <v>25209.054</v>
-      </c>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
+      <c r="C100">
+        <v>18837.360262999999</v>
+      </c>
+      <c r="E100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <v>26583.282803145601</v>
+      </c>
+      <c r="H100">
+        <v>199.374621023592</v>
+      </c>
+      <c r="I100">
+        <v>251.591783672628</v>
+      </c>
+      <c r="J100" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K100" s="5">
+        <f t="shared" si="1"/>
+        <v>27034.249207841822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
         <v>22</v>
       </c>
-      <c r="G90" t="s">
-        <v>105</v>
-      </c>
-      <c r="H90">
-        <v>168941999.82744399</v>
-      </c>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
-      <c r="H91">
-        <v>323998.348826267</v>
-      </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92">
-        <v>138730791.29085299</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F93" t="s">
-        <v>170</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
-      <c r="H93">
-        <v>41086.089165888901</v>
-      </c>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F94" t="s">
-        <v>170</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
-      <c r="H94">
-        <v>18157.473999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F95" t="s">
-        <v>171</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
-      <c r="H95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F96" t="s">
-        <v>172</v>
-      </c>
-      <c r="G96" t="s">
-        <v>119</v>
-      </c>
-      <c r="H96">
-        <v>40821.089165887999</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F97" t="s">
-        <v>173</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
-      <c r="H97">
-        <v>18087.473999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
-        <v>174</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
-      <c r="H98">
-        <v>703645.07799011096</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F99" t="s">
-        <v>174</v>
-      </c>
-      <c r="G99" t="s">
-        <v>106</v>
-      </c>
-      <c r="H99">
-        <v>946161.08400000003</v>
-      </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F100" t="s">
-        <v>175</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
-      <c r="H100">
-        <v>65228.216999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>5.093</v>
+      </c>
+      <c r="E101" t="s">
+        <v>120</v>
+      </c>
       <c r="F101" t="s">
-        <v>175</v>
-      </c>
-      <c r="G101" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="G101">
+        <v>16.039130249999999</v>
       </c>
       <c r="H101">
-        <v>242546.095</v>
-      </c>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+        <v>1.8182009999999998E-2</v>
+      </c>
+      <c r="I101">
+        <v>3.4415947500000002E-2</v>
+      </c>
+      <c r="J101" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K101" s="5">
+        <f t="shared" si="1"/>
+        <v>16.091728207500001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <v>311387.58</v>
+      </c>
+      <c r="E102" t="s">
+        <v>130</v>
+      </c>
       <c r="F102" t="s">
-        <v>176</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="G102">
+        <v>17468.843238000001</v>
       </c>
       <c r="H102">
-        <v>638416.86099011102</v>
-      </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+        <v>8.7188522400000004</v>
+      </c>
+      <c r="I102">
+        <v>8.2517708699999996</v>
+      </c>
+      <c r="J102" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K102" s="5">
+        <f t="shared" si="1"/>
+        <v>17485.81386111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>82167.918999999994</v>
+      </c>
+      <c r="E103" t="s">
+        <v>131</v>
+      </c>
       <c r="F103" t="s">
-        <v>177</v>
-      </c>
-      <c r="G103" t="s">
-        <v>106</v>
-      </c>
-      <c r="H103">
-        <v>687314.98899999994</v>
-      </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G103">
+        <v>4609.6202559000003</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2.3007017319999998</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2.1774498535000002</v>
+      </c>
+      <c r="J103" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="5">
+        <f t="shared" si="1"/>
+        <v>4614.0984074854996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104">
+        <v>142928.51199999999</v>
+      </c>
+      <c r="E104" t="s">
+        <v>126</v>
+      </c>
       <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104">
+        <v>8018.2895232000001</v>
+      </c>
+      <c r="H104">
+        <v>4.0019983359999998</v>
+      </c>
+      <c r="I104">
+        <v>3.787605568</v>
+      </c>
+      <c r="J104" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="5">
+        <f t="shared" si="1"/>
+        <v>8026.0791271039998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105">
+        <v>169.10300000000001</v>
+      </c>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105">
+        <v>543.30663202200003</v>
+      </c>
+      <c r="H105">
+        <v>0.58963510452000001</v>
+      </c>
+      <c r="I105">
+        <v>1.1160950192700001</v>
+      </c>
+      <c r="J105" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="5">
+        <f t="shared" si="1"/>
+        <v>545.01236214579001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>19.858000000000001</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106">
+        <v>62.537806500000002</v>
+      </c>
+      <c r="H106" s="4">
+        <v>7.0893059999999994E-2</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0.134190435</v>
+      </c>
+      <c r="J106" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K106" s="5">
+        <f t="shared" si="1"/>
+        <v>62.742889995000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107">
+        <v>14.856</v>
+      </c>
+      <c r="E107" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107">
+        <v>42.699189480000001</v>
+      </c>
+      <c r="H107">
+        <v>1.8947342400000001E-2</v>
+      </c>
+      <c r="I107">
+        <v>1.7932306200000001E-2</v>
+      </c>
+      <c r="J107" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="5">
+        <f t="shared" si="1"/>
+        <v>42.736069128600001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>4511.4120000000003</v>
+      </c>
+      <c r="E108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108">
+        <v>253.09021319999999</v>
+      </c>
+      <c r="H108">
+        <v>0.12631953600000001</v>
+      </c>
+      <c r="I108">
+        <v>0.11955241799999999</v>
+      </c>
+      <c r="J108" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K108" s="5">
+        <f t="shared" si="1"/>
+        <v>253.33608515400002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109">
+        <v>6.7050000000000001</v>
+      </c>
+      <c r="E109" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G109">
+        <v>22.991947875000001</v>
+      </c>
+      <c r="H109">
+        <v>1.9808447400000002E-2</v>
+      </c>
+      <c r="I109">
+        <v>3.7494561150000001E-2</v>
+      </c>
+      <c r="J109" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K109" s="5">
+        <f t="shared" si="1"/>
+        <v>23.049250883550002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110">
+        <v>26.876999999999999</v>
+      </c>
+      <c r="E110" t="s">
+        <v>127</v>
+      </c>
+      <c r="F110" t="s">
+        <v>39</v>
+      </c>
+      <c r="G110">
+        <v>71.368110720000004</v>
+      </c>
+      <c r="H110">
+        <v>3.4692831600000001E-2</v>
+      </c>
+      <c r="I110">
+        <v>3.2834287050000001E-2</v>
+      </c>
+      <c r="J110" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K110" s="5">
+        <f t="shared" si="1"/>
+        <v>71.435637838649996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>18021.685167</v>
+      </c>
+      <c r="E111" t="s">
+        <v>128</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111">
+        <v>25432.2021076704</v>
+      </c>
+      <c r="H111">
+        <v>190.741515807528</v>
+      </c>
+      <c r="I111">
+        <v>240.69762709045199</v>
+      </c>
+      <c r="J111" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="5">
+        <f t="shared" si="1"/>
+        <v>25863.64125056838</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>268628.51500000001</v>
+      </c>
+      <c r="E112" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" t="s">
+        <v>31</v>
+      </c>
+      <c r="G112">
+        <v>15070.059691500001</v>
+      </c>
+      <c r="H112">
+        <v>7.5215984200000001</v>
+      </c>
+      <c r="I112">
+        <v>7.1186556474999998</v>
+      </c>
+      <c r="J112" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K112" s="5">
+        <f t="shared" si="1"/>
+        <v>15084.699945567501</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
+        <v>20466.723000000002</v>
+      </c>
+      <c r="E113" t="s">
+        <v>132</v>
+      </c>
+      <c r="F113" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113">
+        <v>1148.1831603000001</v>
+      </c>
+      <c r="H113">
+        <v>0.573068244</v>
+      </c>
+      <c r="I113">
+        <v>0.54236815949999995</v>
+      </c>
+      <c r="J113" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K113" s="5">
+        <f t="shared" si="1"/>
+        <v>1149.2985967035002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J114" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K114" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>98</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>123.48</v>
+      </c>
+      <c r="H117">
+        <v>1.0372319999999999</v>
+      </c>
+      <c r="I117">
+        <v>1.3088880000000001</v>
+      </c>
+      <c r="K117" s="5">
+        <f t="shared" ref="K117:K129" si="2">SUM(G117:I117)</f>
+        <v>125.82612</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>1336.2670000000001</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118">
+        <v>4323.7324065599996</v>
+      </c>
+      <c r="H118">
+        <v>216.186620328</v>
+      </c>
+      <c r="I118">
+        <v>40.921038847799998</v>
+      </c>
+      <c r="K118" s="5">
+        <f t="shared" si="2"/>
+        <v>4580.8400657357997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119">
+        <v>625.28800000000001</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119">
+        <v>2008.971557712</v>
+      </c>
+      <c r="H119">
+        <v>2.1802792099200001</v>
+      </c>
+      <c r="I119">
+        <v>4.1269570759200001</v>
+      </c>
+      <c r="K119" s="5">
+        <f t="shared" si="2"/>
+        <v>2015.27879399784</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>79618.405473616294</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120">
+        <v>112357.493804367</v>
+      </c>
+      <c r="H120">
+        <v>842.68120353275503</v>
+      </c>
+      <c r="I120">
+        <v>1063.3834235056199</v>
+      </c>
+      <c r="K120" s="5">
+        <f t="shared" si="2"/>
+        <v>114263.55843140537</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>3909.5210000000002</v>
+      </c>
+      <c r="F121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121">
+        <v>12312.059009250001</v>
+      </c>
+      <c r="H121">
+        <v>13.95698997</v>
+      </c>
+      <c r="I121">
+        <v>26.4185881575</v>
+      </c>
+      <c r="K121" s="5">
+        <f t="shared" si="2"/>
+        <v>12352.4345873775</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>25</v>
       </c>
-      <c r="G104" t="s">
-        <v>105</v>
-      </c>
-      <c r="H104">
-        <v>922351587.120193</v>
-      </c>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F105" t="s">
-        <v>178</v>
-      </c>
-      <c r="G105" t="s">
-        <v>106</v>
-      </c>
-      <c r="H105">
-        <v>2746546481.7248702</v>
-      </c>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F106" t="s">
-        <v>179</v>
-      </c>
-      <c r="G106" t="s">
-        <v>106</v>
-      </c>
-      <c r="H106">
-        <v>6945.9</v>
-      </c>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F107" t="s">
-        <v>180</v>
-      </c>
-      <c r="G107" t="s">
-        <v>106</v>
-      </c>
-      <c r="H107">
-        <v>562177.28399999999</v>
-      </c>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F108" t="s">
-        <v>181</v>
-      </c>
-      <c r="G108" t="s">
-        <v>106</v>
-      </c>
-      <c r="H108">
-        <v>21644727.737847999</v>
-      </c>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F109" t="s">
-        <v>182</v>
-      </c>
-      <c r="G109" t="s">
-        <v>106</v>
-      </c>
-      <c r="H109">
-        <v>459669439.70651001</v>
-      </c>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F110" t="s">
-        <v>183</v>
-      </c>
-      <c r="G110" t="s">
-        <v>106</v>
-      </c>
-      <c r="H110">
-        <v>737168.47400000005</v>
-      </c>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F111" t="s">
-        <v>184</v>
-      </c>
-      <c r="G111" t="s">
-        <v>106</v>
-      </c>
-      <c r="H111">
-        <v>19321392.497288998</v>
-      </c>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F112" t="s">
-        <v>185</v>
-      </c>
-      <c r="G112" t="s">
-        <v>106</v>
-      </c>
-      <c r="H112">
-        <v>1044916.9632</v>
-      </c>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
-        <v>186</v>
-      </c>
-      <c r="G113" t="s">
-        <v>106</v>
-      </c>
-      <c r="H113">
-        <v>158691194.41100001</v>
-      </c>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F114" t="s">
-        <v>187</v>
-      </c>
-      <c r="G114" t="s">
-        <v>106</v>
-      </c>
-      <c r="H114">
-        <v>109899.25599999999</v>
-      </c>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F115" t="s">
-        <v>188</v>
-      </c>
-      <c r="G115" t="s">
-        <v>106</v>
-      </c>
-      <c r="H115">
-        <v>8682435.5810000002</v>
-      </c>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F116" t="s">
-        <v>189</v>
-      </c>
-      <c r="G116" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116">
-        <v>197343492.6081</v>
-      </c>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F117" t="s">
-        <v>190</v>
-      </c>
-      <c r="G117" t="s">
-        <v>106</v>
-      </c>
-      <c r="H117">
-        <v>6346837.8059999999</v>
-      </c>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F118" t="s">
-        <v>191</v>
-      </c>
-      <c r="G118" t="s">
-        <v>106</v>
-      </c>
-      <c r="H118">
-        <v>205046.788</v>
-      </c>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F119" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" t="s">
-        <v>106</v>
-      </c>
-      <c r="H119">
-        <v>9002096.0559999999</v>
-      </c>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F120" t="s">
-        <v>193</v>
-      </c>
-      <c r="G120" t="s">
-        <v>106</v>
-      </c>
-      <c r="H120">
-        <v>1463994.6839999999</v>
-      </c>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F121" t="s">
-        <v>194</v>
-      </c>
-      <c r="G121" t="s">
-        <v>106</v>
-      </c>
-      <c r="H121">
-        <v>3250140.7</v>
-      </c>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>537.24300000000005</v>
+      </c>
       <c r="F122" t="s">
-        <v>195</v>
-      </c>
-      <c r="G122" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>1513.247522913</v>
       </c>
       <c r="H122">
-        <v>12563083.456</v>
-      </c>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+        <v>0.44090458523999998</v>
+      </c>
+      <c r="I122">
+        <v>6.2592704511750004</v>
+      </c>
+      <c r="K122" s="5">
+        <f t="shared" si="2"/>
+        <v>1519.9476979494152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <v>196.76499999999999</v>
+      </c>
       <c r="F123" t="s">
-        <v>196</v>
-      </c>
-      <c r="G123" t="s">
-        <v>106</v>
+        <v>26</v>
+      </c>
+      <c r="G123">
+        <v>607.90841897500002</v>
       </c>
       <c r="H123">
-        <v>462136.18300000002</v>
-      </c>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+        <v>0.71418611460000003</v>
+      </c>
+      <c r="I123">
+        <v>1.3518522883499999</v>
+      </c>
+      <c r="K123" s="5">
+        <f t="shared" si="2"/>
+        <v>609.97445737794999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124">
+        <v>180.25899999999999</v>
+      </c>
       <c r="F124" t="s">
-        <v>197</v>
-      </c>
-      <c r="G124" t="s">
-        <v>106</v>
+        <v>28</v>
+      </c>
+      <c r="G124">
+        <v>518.10131909500001</v>
       </c>
       <c r="H124">
-        <v>471498320.29631001</v>
-      </c>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+        <v>0.22990232860000001</v>
+      </c>
+      <c r="I124">
+        <v>0.217586132425</v>
+      </c>
+      <c r="K124" s="5">
+        <f t="shared" si="2"/>
+        <v>518.54880755602505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125">
+        <v>13500.161</v>
+      </c>
       <c r="F125" t="s">
-        <v>198</v>
-      </c>
-      <c r="G125" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="G125">
+        <v>41136.624086481002</v>
       </c>
       <c r="H125">
-        <v>2160534.5296393302</v>
-      </c>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+        <v>49.862574650280003</v>
+      </c>
+      <c r="I125">
+        <v>94.38273058803</v>
+      </c>
+      <c r="K125" s="5">
+        <f t="shared" si="2"/>
+        <v>41280.869391719316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126">
+        <v>941041.67</v>
+      </c>
       <c r="F126" t="s">
-        <v>199</v>
-      </c>
-      <c r="G126" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="G126">
+        <v>52792.437686999998</v>
       </c>
       <c r="H126">
-        <v>63537555.582292199</v>
-      </c>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+        <v>26.349166759999999</v>
+      </c>
+      <c r="I126">
+        <v>24.937604255</v>
+      </c>
+      <c r="K126" s="5">
+        <f t="shared" si="2"/>
+        <v>52843.724458015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127">
+        <v>537.24300000000005</v>
+      </c>
       <c r="F127" t="s">
-        <v>200</v>
-      </c>
-      <c r="G127" t="s">
-        <v>106</v>
+        <v>32</v>
+      </c>
+      <c r="G127">
+        <v>1489.6276344180001</v>
       </c>
       <c r="H127">
-        <v>124718009.316</v>
-      </c>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+        <v>0.44090458523999998</v>
+      </c>
+      <c r="I127">
+        <v>6.2592704511750004</v>
+      </c>
+      <c r="K127" s="5">
+        <f t="shared" si="2"/>
+        <v>1496.3278094544153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128">
+        <v>6.7050000000000001</v>
+      </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="G128">
+        <v>22.991947875000001</v>
       </c>
       <c r="H128">
-        <v>39096349.603931703</v>
-      </c>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+        <v>1.9808447400000002E-2</v>
+      </c>
+      <c r="I128">
+        <v>3.7494561150000001E-2</v>
+      </c>
+      <c r="K128" s="5">
+        <f t="shared" si="2"/>
+        <v>23.049250883550002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129">
+        <v>26.876999999999999</v>
+      </c>
       <c r="F129" t="s">
-        <v>27</v>
-      </c>
-      <c r="G129" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="G129">
+        <v>71.368110720000004</v>
       </c>
       <c r="H129">
-        <v>124003083.37989999</v>
-      </c>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F130" t="s">
-        <v>201</v>
-      </c>
-      <c r="G130" t="s">
-        <v>105</v>
-      </c>
-      <c r="H130">
-        <v>35356509996</v>
-      </c>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F131" t="s">
-        <v>202</v>
-      </c>
-      <c r="G131" t="s">
-        <v>105</v>
-      </c>
-      <c r="H131">
-        <v>3299522099</v>
-      </c>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>105</v>
-      </c>
-      <c r="H132">
-        <v>51904680.987326801</v>
-      </c>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F133" t="s">
-        <v>50</v>
-      </c>
-      <c r="G133" t="s">
-        <v>105</v>
-      </c>
-      <c r="H133">
-        <v>6793147.5268496796</v>
-      </c>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F134" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s">
-        <v>105</v>
-      </c>
-      <c r="H134">
-        <v>222512146.83425799</v>
-      </c>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F135" t="s">
-        <v>203</v>
-      </c>
-      <c r="G135" t="s">
-        <v>106</v>
-      </c>
-      <c r="H135">
-        <v>168046280.21212</v>
-      </c>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" t="s">
-        <v>105</v>
-      </c>
-      <c r="H136">
-        <v>46666959.278813198</v>
-      </c>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F137" t="s">
-        <v>204</v>
-      </c>
-      <c r="G137" t="s">
-        <v>106</v>
-      </c>
-      <c r="H137">
-        <v>4667396472.5374498</v>
-      </c>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F138" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" t="s">
-        <v>106</v>
-      </c>
-      <c r="H138">
-        <v>91537835132.643402</v>
-      </c>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F139" t="s">
-        <v>108</v>
-      </c>
-      <c r="G139" t="s">
-        <v>105</v>
-      </c>
-      <c r="H139">
-        <v>41518745.600655399</v>
-      </c>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F140" t="s">
-        <v>205</v>
-      </c>
-      <c r="G140" t="s">
-        <v>119</v>
-      </c>
-      <c r="H140">
-        <v>16819</v>
-      </c>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F141" t="s">
-        <v>206</v>
-      </c>
-      <c r="G141" t="s">
-        <v>119</v>
-      </c>
-      <c r="H141">
-        <v>15723</v>
-      </c>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F142" t="s">
-        <v>207</v>
-      </c>
-      <c r="G142" t="s">
-        <v>119</v>
-      </c>
-      <c r="H142">
-        <v>35848566.189000003</v>
-      </c>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F143" t="s">
-        <v>207</v>
-      </c>
-      <c r="G143" t="s">
-        <v>106</v>
-      </c>
-      <c r="H143">
-        <v>795554.26199999999</v>
-      </c>
-    </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F144" t="s">
-        <v>208</v>
-      </c>
-      <c r="G144" t="s">
-        <v>119</v>
-      </c>
-      <c r="H144">
-        <v>387034</v>
-      </c>
-    </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F145" t="s">
-        <v>208</v>
-      </c>
-      <c r="G145" t="s">
-        <v>106</v>
-      </c>
-      <c r="H145">
-        <v>672360.71600000001</v>
-      </c>
-    </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F146" t="s">
-        <v>209</v>
-      </c>
-      <c r="G146" t="s">
-        <v>119</v>
-      </c>
-      <c r="H146">
-        <v>35148154.189000003</v>
-      </c>
-    </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F147" t="s">
-        <v>210</v>
-      </c>
-      <c r="G147" t="s">
-        <v>106</v>
-      </c>
-      <c r="H147">
-        <v>123193.546</v>
-      </c>
-    </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F148" t="s">
-        <v>211</v>
-      </c>
-      <c r="G148" t="s">
-        <v>105</v>
-      </c>
-      <c r="H148">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F149" t="s">
-        <v>212</v>
-      </c>
-      <c r="G149" t="s">
-        <v>105</v>
-      </c>
-      <c r="H149">
-        <v>2382128.1442</v>
-      </c>
-    </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F150" t="s">
-        <v>213</v>
-      </c>
-      <c r="G150" t="s">
-        <v>105</v>
-      </c>
-      <c r="H150">
-        <v>6233646.8700000001</v>
-      </c>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F151" t="s">
-        <v>214</v>
-      </c>
-      <c r="G151" t="s">
-        <v>107</v>
-      </c>
-      <c r="H151">
-        <v>57.243858237547897</v>
-      </c>
-    </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F152" t="s">
-        <v>214</v>
-      </c>
-      <c r="G152" t="s">
-        <v>119</v>
-      </c>
-      <c r="H152">
-        <v>25047.531999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F153" t="s">
-        <v>214</v>
-      </c>
-      <c r="G153" t="s">
-        <v>105</v>
-      </c>
-      <c r="H153">
-        <v>134195.67271563801</v>
-      </c>
-    </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F154" t="s">
-        <v>214</v>
-      </c>
-      <c r="G154" t="s">
-        <v>106</v>
-      </c>
-      <c r="H154">
-        <v>83328.721999999994</v>
-      </c>
-    </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F155" t="s">
-        <v>215</v>
-      </c>
-      <c r="G155" t="s">
-        <v>119</v>
-      </c>
-      <c r="H155">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F156" t="s">
-        <v>216</v>
-      </c>
-      <c r="G156" t="s">
-        <v>119</v>
-      </c>
-      <c r="H156">
-        <v>1269265.0524293799</v>
-      </c>
-    </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F157" t="s">
-        <v>217</v>
-      </c>
-      <c r="G157" t="s">
-        <v>105</v>
-      </c>
-      <c r="H157">
-        <v>2685165.9455800001</v>
-      </c>
-    </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>105</v>
-      </c>
-      <c r="H158">
-        <v>229050022.06378099</v>
-      </c>
-    </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F159" t="s">
-        <v>33</v>
-      </c>
-      <c r="G159" t="s">
-        <v>105</v>
-      </c>
-      <c r="H159">
-        <v>43.306420500000002</v>
-      </c>
-    </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F160" t="s">
-        <v>34</v>
-      </c>
-      <c r="G160" t="s">
-        <v>105</v>
-      </c>
-      <c r="H160">
-        <v>7045309.8689999999</v>
-      </c>
-    </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F161" t="s">
-        <v>35</v>
-      </c>
-      <c r="G161" t="s">
-        <v>105</v>
-      </c>
-      <c r="H161">
-        <v>213261.33244197001</v>
-      </c>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F162" t="s">
-        <v>218</v>
-      </c>
-      <c r="G162" t="s">
-        <v>105</v>
-      </c>
-      <c r="H162">
-        <v>743773.48354445002</v>
-      </c>
-    </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F163" t="s">
-        <v>219</v>
-      </c>
-      <c r="G163" t="s">
-        <v>105</v>
-      </c>
-      <c r="H163">
-        <v>6810488.81702</v>
-      </c>
-    </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F164" t="s">
-        <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>105</v>
-      </c>
-      <c r="H164">
-        <v>2195414.45669368</v>
-      </c>
-    </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F165" t="s">
-        <v>37</v>
-      </c>
-      <c r="G165" t="s">
-        <v>105</v>
-      </c>
-      <c r="H165">
-        <v>3909345405.6896501</v>
-      </c>
-    </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F166" t="s">
-        <v>220</v>
-      </c>
-      <c r="G166" t="s">
-        <v>105</v>
-      </c>
-      <c r="H166">
-        <v>381960.76130299998</v>
-      </c>
-    </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F167" t="s">
-        <v>38</v>
-      </c>
-      <c r="G167" t="s">
-        <v>105</v>
-      </c>
-      <c r="H167">
-        <v>22073168.8381496</v>
-      </c>
-    </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F168" t="s">
-        <v>221</v>
-      </c>
-      <c r="G168" t="s">
-        <v>105</v>
-      </c>
-      <c r="H168">
-        <v>6272.3680000000004</v>
-      </c>
-    </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G169" t="s">
-        <v>105</v>
-      </c>
-      <c r="H169">
-        <v>20513412.355115999</v>
-      </c>
-    </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F170" t="s">
-        <v>222</v>
-      </c>
-      <c r="G170" t="s">
-        <v>119</v>
-      </c>
-      <c r="H170">
-        <v>847269.13852561999</v>
-      </c>
-    </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F171" t="s">
-        <v>223</v>
-      </c>
-      <c r="G171" t="s">
-        <v>119</v>
-      </c>
-      <c r="H171">
-        <v>3336050.5084755602</v>
-      </c>
-    </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F172" t="s">
-        <v>224</v>
-      </c>
-      <c r="G172" t="s">
-        <v>119</v>
-      </c>
-      <c r="H172">
-        <v>847269.13852561999</v>
-      </c>
-    </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F173" t="s">
-        <v>225</v>
-      </c>
-      <c r="G173" t="s">
-        <v>119</v>
-      </c>
-      <c r="H173">
-        <v>3331657.1424755598</v>
-      </c>
-    </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F174" t="s">
-        <v>226</v>
-      </c>
-      <c r="G174" t="s">
-        <v>106</v>
-      </c>
-      <c r="H174">
-        <v>160725.29999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F175" t="s">
-        <v>227</v>
-      </c>
-      <c r="G175" t="s">
-        <v>119</v>
-      </c>
-      <c r="H175">
-        <v>4393.366</v>
-      </c>
-    </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F176" t="s">
-        <v>227</v>
-      </c>
-      <c r="G176" t="s">
-        <v>106</v>
-      </c>
-      <c r="H176">
-        <v>24428.57</v>
-      </c>
-    </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F177" t="s">
-        <v>228</v>
-      </c>
-      <c r="G177" t="s">
-        <v>105</v>
-      </c>
-      <c r="H177">
-        <v>74830481.415399998</v>
-      </c>
-    </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F178" t="s">
-        <v>229</v>
-      </c>
-      <c r="G178" t="s">
-        <v>119</v>
-      </c>
-      <c r="H178">
-        <v>16840.293000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F179" t="s">
-        <v>230</v>
-      </c>
-      <c r="G179" t="s">
-        <v>105</v>
-      </c>
-      <c r="H179">
-        <v>124350284.194574</v>
-      </c>
-    </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F180" t="s">
-        <v>231</v>
-      </c>
-      <c r="G180" t="s">
-        <v>105</v>
-      </c>
-      <c r="H180">
-        <v>125722940.811234</v>
-      </c>
-    </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F181" t="s">
-        <v>232</v>
-      </c>
-      <c r="G181" t="s">
-        <v>233</v>
-      </c>
-      <c r="H181">
-        <v>11977717</v>
-      </c>
-    </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F182" t="s">
-        <v>234</v>
-      </c>
-      <c r="G182" t="s">
-        <v>106</v>
-      </c>
-      <c r="H182">
-        <v>1051304741.56019</v>
-      </c>
-    </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F183" t="s">
-        <v>235</v>
-      </c>
-      <c r="G183" t="s">
-        <v>105</v>
-      </c>
-      <c r="H183">
-        <v>1318180.6591662499</v>
-      </c>
-    </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F184" t="s">
-        <v>236</v>
-      </c>
-      <c r="G184" t="s">
-        <v>119</v>
-      </c>
-      <c r="H184">
-        <v>148098.23627666701</v>
-      </c>
-    </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F185" t="s">
-        <v>237</v>
-      </c>
-      <c r="G185" t="s">
-        <v>119</v>
-      </c>
-      <c r="H185">
-        <v>8568709.1252865493</v>
-      </c>
+        <v>3.4692831600000001E-2</v>
+      </c>
+      <c r="I129">
+        <v>3.2834287050000001E-2</v>
+      </c>
+      <c r="K129" s="5">
+        <f t="shared" si="2"/>
+        <v>71.435637838649996</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K130" s="7">
+        <f>SUM(K117:K129)</f>
+        <v>231701.81550931081</v>
+      </c>
+      <c r="L130" s="6">
+        <f>K130-K117-K118-K120+SUM(H117:I118)+H120+I120</f>
+        <v>114897.1092983838</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H158" s="4"/>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H186" s="4"/>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H205" s="4"/>
+    </row>
+    <row r="232" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+    </row>
+    <row r="237" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H237" s="4"/>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H265" s="4"/>
+      <c r="I265" s="4"/>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H268" s="4"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H310" s="4"/>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+    </row>
+    <row r="349" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+    </row>
+    <row r="411" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H411" s="4"/>
+    </row>
+    <row r="430" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H430" s="4"/>
+    </row>
+    <row r="446" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H446" s="4"/>
+      <c r="I446" s="4"/>
+    </row>
+    <row r="448" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
+    </row>
+    <row r="451" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H451" s="4"/>
+      <c r="I451" s="4"/>
+    </row>
+    <row r="452" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H452" s="4"/>
+    </row>
+    <row r="516" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H516" s="4"/>
+    </row>
+    <row r="519" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H519" s="4"/>
+      <c r="I519" s="4"/>
+    </row>
+    <row r="523" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H523" s="4"/>
+    </row>
+    <row r="530" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H530" s="4"/>
+    </row>
+    <row r="543" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H543" s="4"/>
+      <c r="I543" s="4"/>
+    </row>
+    <row r="549" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H549" s="4"/>
+    </row>
+    <row r="582" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H582" s="4"/>
+      <c r="I582" s="4"/>
+    </row>
+    <row r="588" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H588" s="4"/>
+      <c r="I588" s="4"/>
+    </row>
+    <row r="594" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H594" s="4"/>
+      <c r="I594" s="4"/>
+    </row>
+    <row r="698" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H698" s="4"/>
+      <c r="I698" s="4"/>
+    </row>
+    <row r="718" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H718" s="4"/>
+      <c r="I718" s="4"/>
+    </row>
+    <row r="725" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H725" s="4"/>
+      <c r="I725" s="4"/>
+    </row>
+    <row r="728" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H728" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:B75">
-    <sortCondition ref="B44:B75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:B73">
+    <sortCondition ref="B42:B73"/>
   </sortState>
+  <conditionalFormatting sqref="J79:J114">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
